--- a/1stDataset/PreprocessedTable-1-Demographics.xlsx
+++ b/1stDataset/PreprocessedTable-1-Demographics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="205">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>Niue</t>
-  </si>
-  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
   </si>
   <si>
     <t>Panama</t>
@@ -1013,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ188"/>
+  <dimension ref="B1:AJ186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AI99" sqref="AA99:AI99"/>
+    <sheetView tabSelected="1" topLeftCell="T100" workbookViewId="0">
+      <selection activeCell="O127" sqref="O127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1059,74 +1053,74 @@
   <sheetData>
     <row r="1" spans="2:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R1" s="4"/>
       <c r="S1" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="V1" s="4"/>
       <c r="W1" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ1" s="4"/>
     </row>
@@ -5167,13 +5161,13 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I74" s="2">
         <v>0.11317129332107</v>
@@ -5182,19 +5176,19 @@
         <v>-0.11307246629288201</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W74" s="1">
         <v>91.706161137440802</v>
@@ -5215,7 +5209,7 @@
         <v>-0.11307246629288201</v>
       </c>
       <c r="AI74" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="2:35" x14ac:dyDescent="0.3">
@@ -7911,55 +7905,55 @@
         <v>121</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>188</v>
+        <v>2083</v>
+      </c>
+      <c r="E123" s="1">
+        <v>412</v>
+      </c>
+      <c r="G123" s="1">
+        <v>112</v>
       </c>
       <c r="I123" s="2">
-        <v>-0.77007212136618397</v>
+        <v>0.11229875049780701</v>
       </c>
       <c r="K123" s="2">
-        <v>0.243917070881422</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S123" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="U123" s="3" t="s">
-        <v>190</v>
+        <v>-0.14354450861850801</v>
+      </c>
+      <c r="M123" s="1">
+        <v>22</v>
+      </c>
+      <c r="O123" s="2">
+        <v>1.482</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>66.301000000000002</v>
+      </c>
+      <c r="S123" s="1">
+        <v>73.266999999999996</v>
+      </c>
+      <c r="U123" s="1">
+        <v>75.918000000000006</v>
       </c>
       <c r="W123" s="1">
-        <v>54.536771728748803</v>
+        <v>44.482710314724798</v>
       </c>
       <c r="Y123" s="1">
-        <v>37.726838586437403</v>
+        <v>23.565388173580601</v>
       </c>
       <c r="AA123" s="1">
-        <v>16.809933142311401</v>
+        <v>20.917322141144201</v>
       </c>
       <c r="AC123" s="1">
-        <v>46.201999999999998</v>
+        <v>58.481999999999999</v>
       </c>
       <c r="AE123" s="2">
-        <v>0.82243644789433101</v>
+        <v>0.1069277217427</v>
       </c>
       <c r="AG123" s="2">
-        <v>1.3973296024739801</v>
-      </c>
-      <c r="AI123" s="3" t="s">
-        <v>190</v>
+        <v>0.49667028271605401</v>
+      </c>
+      <c r="AI123" s="2">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="124" spans="2:35" x14ac:dyDescent="0.3">
@@ -7967,55 +7961,55 @@
         <v>122</v>
       </c>
       <c r="C124" s="1">
-        <v>2083</v>
+        <v>5421</v>
       </c>
       <c r="E124" s="1">
-        <v>412</v>
+        <v>1126</v>
       </c>
       <c r="G124" s="1">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="I124" s="2">
-        <v>0.11229875049780701</v>
+        <v>0.88755448690709804</v>
       </c>
       <c r="K124" s="2">
-        <v>-0.14354450861850801</v>
+        <v>0.73216403086656301</v>
       </c>
       <c r="M124" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="O124" s="2">
-        <v>1.482</v>
+        <v>1.6779999999999999</v>
       </c>
       <c r="Q124" s="1">
-        <v>66.301000000000002</v>
+        <v>74.14</v>
       </c>
       <c r="S124" s="1">
-        <v>73.266999999999996</v>
+        <v>78.793000000000006</v>
       </c>
       <c r="U124" s="1">
-        <v>75.918000000000006</v>
+        <v>82.546000000000006</v>
       </c>
       <c r="W124" s="1">
-        <v>44.482710314724798</v>
+        <v>53.3359185163878</v>
       </c>
       <c r="Y124" s="1">
-        <v>23.565388173580601</v>
+        <v>26.461328461649199</v>
       </c>
       <c r="AA124" s="1">
-        <v>20.917322141144201</v>
+        <v>26.874590054738601</v>
       </c>
       <c r="AC124" s="1">
-        <v>58.481999999999999</v>
+        <v>82.974000000000004</v>
       </c>
       <c r="AE124" s="2">
-        <v>0.1069277217427</v>
+        <v>1.3043680209522099</v>
       </c>
       <c r="AG124" s="2">
-        <v>0.49667028271605401</v>
+        <v>1.0665698617458399</v>
       </c>
       <c r="AI124" s="2">
-        <v>-0.48</v>
+        <v>5.2729999999999997</v>
       </c>
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.3">
@@ -8023,55 +8017,55 @@
         <v>123</v>
       </c>
       <c r="C125" s="1">
-        <v>5421</v>
+        <v>5107</v>
       </c>
       <c r="E125" s="1">
-        <v>1126</v>
+        <v>1279</v>
       </c>
       <c r="G125" s="1">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="I125" s="2">
-        <v>0.88755448690709804</v>
+        <v>3.8650078468430999</v>
       </c>
       <c r="K125" s="2">
-        <v>0.73216403086656301</v>
+        <v>1.3682850852483599</v>
       </c>
       <c r="M125" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O125" s="2">
-        <v>1.6779999999999999</v>
+        <v>2.7829999999999999</v>
       </c>
       <c r="Q125" s="1">
-        <v>74.14</v>
+        <v>50.31</v>
       </c>
       <c r="S125" s="1">
-        <v>78.793000000000006</v>
+        <v>72.126000000000005</v>
       </c>
       <c r="U125" s="1">
-        <v>82.546000000000006</v>
+        <v>78.078000000000003</v>
       </c>
       <c r="W125" s="1">
-        <v>53.3359185163878</v>
+        <v>33.329765077339303</v>
       </c>
       <c r="Y125" s="1">
-        <v>26.461328461649199</v>
+        <v>29.981809727187699</v>
       </c>
       <c r="AA125" s="1">
-        <v>26.874590054738601</v>
+        <v>3.3479553501516501</v>
       </c>
       <c r="AC125" s="1">
-        <v>82.974000000000004</v>
+        <v>86.275999999999996</v>
       </c>
       <c r="AE125" s="2">
-        <v>1.3043680209522099</v>
+        <v>4.7549575632336403</v>
       </c>
       <c r="AG125" s="2">
-        <v>1.0665698617458399</v>
+        <v>1.9212772927223301</v>
       </c>
       <c r="AI125" s="2">
-        <v>5.2729999999999997</v>
+        <v>18.646999999999998</v>
       </c>
     </row>
     <row r="126" spans="2:35" x14ac:dyDescent="0.3">
@@ -8079,55 +8073,55 @@
         <v>124</v>
       </c>
       <c r="C126" s="1">
-        <v>5107</v>
+        <v>220892</v>
       </c>
       <c r="E126" s="1">
-        <v>1279</v>
+        <v>90247</v>
       </c>
       <c r="G126" s="1">
-        <v>454</v>
+        <v>27963</v>
       </c>
       <c r="I126" s="2">
-        <v>3.8650078468430999</v>
+        <v>2.09253170990227</v>
       </c>
       <c r="K126" s="2">
-        <v>1.3682850852483599</v>
+        <v>1.58474510680314</v>
       </c>
       <c r="M126" s="1">
-        <v>90</v>
+        <v>6046</v>
       </c>
       <c r="O126" s="2">
-        <v>2.7829999999999999</v>
+        <v>3.3940000000000001</v>
       </c>
       <c r="Q126" s="1">
-        <v>50.31</v>
+        <v>52.649000000000001</v>
       </c>
       <c r="S126" s="1">
-        <v>72.126000000000005</v>
+        <v>62.82</v>
       </c>
       <c r="U126" s="1">
-        <v>78.078000000000003</v>
+        <v>67.427999999999997</v>
       </c>
       <c r="W126" s="1">
-        <v>33.329765077339303</v>
+        <v>64.387739380468005</v>
       </c>
       <c r="Y126" s="1">
-        <v>29.981809727187699</v>
+        <v>57.239096679071501</v>
       </c>
       <c r="AA126" s="1">
-        <v>3.3479553501516501</v>
+        <v>7.1486427013964704</v>
       </c>
       <c r="AC126" s="1">
-        <v>86.275999999999996</v>
+        <v>37.164999999999999</v>
       </c>
       <c r="AE126" s="2">
-        <v>4.7549575632336403</v>
+        <v>2.66112932928645</v>
       </c>
       <c r="AG126" s="2">
-        <v>1.9212772927223301</v>
+        <v>2.4062824977404298</v>
       </c>
       <c r="AI126" s="2">
-        <v>18.646999999999998</v>
+        <v>-1.1100000000000001</v>
       </c>
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.3">
@@ -8135,55 +8129,55 @@
         <v>125</v>
       </c>
       <c r="C127" s="1">
-        <v>220892</v>
+        <v>4315</v>
       </c>
       <c r="E127" s="1">
-        <v>90247</v>
+        <v>1358</v>
       </c>
       <c r="G127" s="1">
-        <v>27963</v>
+        <v>389</v>
       </c>
       <c r="I127" s="2">
-        <v>2.09253170990227</v>
+        <v>1.6827192508783499</v>
       </c>
       <c r="K127" s="2">
-        <v>1.58474510680314</v>
+        <v>1.20737211098327</v>
       </c>
       <c r="M127" s="1">
-        <v>6046</v>
+        <v>80</v>
       </c>
       <c r="O127" s="2">
-        <v>3.3940000000000001</v>
+        <v>2.415</v>
       </c>
       <c r="Q127" s="1">
-        <v>52.649000000000001</v>
+        <v>65.531999999999996</v>
       </c>
       <c r="S127" s="1">
-        <v>62.82</v>
+        <v>75.06</v>
       </c>
       <c r="U127" s="1">
-        <v>67.427999999999997</v>
+        <v>78.680000000000007</v>
       </c>
       <c r="W127" s="1">
-        <v>64.387739380468005</v>
+        <v>53.925745652478703</v>
       </c>
       <c r="Y127" s="1">
-        <v>57.239096679071501</v>
+        <v>40.782348708541697</v>
       </c>
       <c r="AA127" s="1">
-        <v>7.1486427013964704</v>
+        <v>13.143396943937001</v>
       </c>
       <c r="AC127" s="1">
-        <v>37.164999999999999</v>
+        <v>68.414000000000001</v>
       </c>
       <c r="AE127" s="2">
-        <v>2.66112932928645</v>
+        <v>2.1363127611639898</v>
       </c>
       <c r="AG127" s="2">
-        <v>2.4062824977404298</v>
+        <v>1.69992731715532</v>
       </c>
       <c r="AI127" s="2">
-        <v>-1.1100000000000001</v>
+        <v>2.7040000000000002</v>
       </c>
     </row>
     <row r="128" spans="2:35" x14ac:dyDescent="0.3">
@@ -8191,55 +8185,55 @@
         <v>126</v>
       </c>
       <c r="C128" s="1">
-        <v>18</v>
+        <v>8947</v>
       </c>
       <c r="E128" s="1">
-        <v>4</v>
+        <v>3708</v>
       </c>
       <c r="G128" s="1">
-        <v>1</v>
+        <v>1107</v>
       </c>
       <c r="I128" s="2">
-        <v>-0.25918040759330901</v>
+        <v>2.0251985132459698</v>
       </c>
       <c r="K128" s="2">
-        <v>0.186996845719507</v>
-      </c>
-      <c r="M128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="U128" s="3" t="s">
-        <v>190</v>
+        <v>1.6345089701723901</v>
+      </c>
+      <c r="M128" s="1">
+        <v>237</v>
+      </c>
+      <c r="O128" s="2">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>45.915999999999997</v>
+      </c>
+      <c r="S128" s="1">
+        <v>59.265000000000001</v>
+      </c>
+      <c r="U128" s="1">
+        <v>64.724999999999994</v>
       </c>
       <c r="W128" s="1">
-        <v>41.742400501410202</v>
+        <v>63.178984025578899</v>
       </c>
       <c r="Y128" s="1">
-        <v>28.517706048260699</v>
+        <v>57.350883729990002</v>
       </c>
       <c r="AA128" s="1">
-        <v>13.2246944531495</v>
+        <v>5.8281002955888903</v>
       </c>
       <c r="AC128" s="1">
-        <v>80.988</v>
+        <v>13.345000000000001</v>
       </c>
       <c r="AE128" s="2">
-        <v>0.41219484112823201</v>
+        <v>2.0757793173675898</v>
       </c>
       <c r="AG128" s="2">
-        <v>0.63114244007085796</v>
-      </c>
-      <c r="AI128" s="3" t="s">
-        <v>190</v>
+        <v>2.8087482032744302</v>
+      </c>
+      <c r="AI128" s="2">
+        <v>-9.4E-2</v>
       </c>
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.3">
@@ -8247,55 +8241,55 @@
         <v>127</v>
       </c>
       <c r="C129" s="1">
-        <v>4315</v>
+        <v>7133</v>
       </c>
       <c r="E129" s="1">
-        <v>1358</v>
+        <v>2455</v>
       </c>
       <c r="G129" s="1">
-        <v>389</v>
+        <v>701</v>
       </c>
       <c r="I129" s="2">
-        <v>1.6827192508783499</v>
+        <v>1.3932905152364501</v>
       </c>
       <c r="K129" s="2">
-        <v>1.20737211098327</v>
+        <v>0.98638199174593799</v>
       </c>
       <c r="M129" s="1">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="O129" s="2">
-        <v>2.415</v>
+        <v>2.383</v>
       </c>
       <c r="Q129" s="1">
-        <v>65.531999999999996</v>
+        <v>65.367999999999995</v>
       </c>
       <c r="S129" s="1">
-        <v>75.06</v>
+        <v>70.546000000000006</v>
       </c>
       <c r="U129" s="1">
-        <v>78.680000000000007</v>
+        <v>74.363</v>
       </c>
       <c r="W129" s="1">
-        <v>53.925745652478703</v>
+        <v>55.531772505238301</v>
       </c>
       <c r="Y129" s="1">
-        <v>40.782348708541697</v>
+        <v>44.938560574491497</v>
       </c>
       <c r="AA129" s="1">
-        <v>13.143396943937001</v>
+        <v>10.593211930746801</v>
       </c>
       <c r="AC129" s="1">
-        <v>68.414000000000001</v>
+        <v>62.183</v>
       </c>
       <c r="AE129" s="2">
-        <v>2.1363127611639898</v>
+        <v>1.9492348979360401</v>
       </c>
       <c r="AG129" s="2">
-        <v>1.69992731715532</v>
+        <v>1.4868157729824301</v>
       </c>
       <c r="AI129" s="2">
-        <v>2.7040000000000002</v>
+        <v>-2.3959999999999999</v>
       </c>
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.3">
@@ -8303,55 +8297,55 @@
         <v>128</v>
       </c>
       <c r="C130" s="1">
-        <v>8947</v>
+        <v>32972</v>
       </c>
       <c r="E130" s="1">
-        <v>3708</v>
+        <v>9608</v>
       </c>
       <c r="G130" s="1">
-        <v>1107</v>
+        <v>2833</v>
       </c>
       <c r="I130" s="2">
-        <v>2.0251985132459698</v>
+        <v>1.04772382632379</v>
       </c>
       <c r="K130" s="2">
-        <v>1.6345089701723901</v>
+        <v>0.80649372333382796</v>
       </c>
       <c r="M130" s="1">
-        <v>237</v>
+        <v>575</v>
       </c>
       <c r="O130" s="2">
-        <v>3.4769999999999999</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="Q130" s="1">
-        <v>45.915999999999997</v>
+        <v>54.173999999999999</v>
       </c>
       <c r="S130" s="1">
-        <v>59.265000000000001</v>
+        <v>71.111000000000004</v>
       </c>
       <c r="U130" s="1">
-        <v>64.724999999999994</v>
+        <v>76.947000000000003</v>
       </c>
       <c r="W130" s="1">
-        <v>63.178984025578899</v>
+        <v>50.189397950970097</v>
       </c>
       <c r="Y130" s="1">
-        <v>57.350883729990002</v>
+        <v>37.084979254571202</v>
       </c>
       <c r="AA130" s="1">
-        <v>5.8281002955888903</v>
+        <v>13.1044186963989</v>
       </c>
       <c r="AC130" s="1">
-        <v>13.345000000000001</v>
+        <v>78.296999999999997</v>
       </c>
       <c r="AE130" s="2">
-        <v>2.0757793173675898</v>
+        <v>1.3785555878398901</v>
       </c>
       <c r="AG130" s="2">
-        <v>2.8087482032744302</v>
+        <v>1.06292479670582</v>
       </c>
       <c r="AI130" s="2">
-        <v>-9.4E-2</v>
+        <v>3.1230000000000002</v>
       </c>
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.3">
@@ -8359,55 +8353,55 @@
         <v>129</v>
       </c>
       <c r="C131" s="1">
-        <v>7133</v>
+        <v>109581</v>
       </c>
       <c r="E131" s="1">
-        <v>2455</v>
+        <v>39242</v>
       </c>
       <c r="G131" s="1">
-        <v>701</v>
+        <v>10616</v>
       </c>
       <c r="I131" s="2">
-        <v>1.3932905152364501</v>
+        <v>1.6193411232627499</v>
       </c>
       <c r="K131" s="2">
-        <v>0.98638199174593799</v>
+        <v>1.10161577622286</v>
       </c>
       <c r="M131" s="1">
-        <v>143</v>
+        <v>2183</v>
       </c>
       <c r="O131" s="2">
-        <v>2.383</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Q131" s="1">
-        <v>65.367999999999995</v>
+        <v>63.155000000000001</v>
       </c>
       <c r="S131" s="1">
-        <v>70.546000000000006</v>
+        <v>68.793000000000006</v>
       </c>
       <c r="U131" s="1">
-        <v>74.363</v>
+        <v>71.36</v>
       </c>
       <c r="W131" s="1">
-        <v>55.531772505238301</v>
+        <v>55.1694550352032</v>
       </c>
       <c r="Y131" s="1">
-        <v>44.938560574491497</v>
+        <v>46.617063248754597</v>
       </c>
       <c r="AA131" s="1">
-        <v>10.593211930746801</v>
+        <v>8.5523917864486094</v>
       </c>
       <c r="AC131" s="1">
-        <v>62.183</v>
+        <v>47.408000000000001</v>
       </c>
       <c r="AE131" s="2">
-        <v>1.9492348979360401</v>
+        <v>1.7489559318374699</v>
       </c>
       <c r="AG131" s="2">
-        <v>1.4868157729824301</v>
+        <v>1.7520097250245901</v>
       </c>
       <c r="AI131" s="2">
-        <v>-2.3959999999999999</v>
+        <v>-0.63400000000000001</v>
       </c>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.3">
@@ -8415,55 +8409,55 @@
         <v>130</v>
       </c>
       <c r="C132" s="1">
-        <v>32972</v>
+        <v>37847</v>
       </c>
       <c r="E132" s="1">
-        <v>9608</v>
+        <v>6802</v>
       </c>
       <c r="G132" s="1">
-        <v>2833</v>
+        <v>1885</v>
       </c>
       <c r="I132" s="2">
-        <v>1.04772382632379</v>
+        <v>-8.8517045428424701E-2</v>
       </c>
       <c r="K132" s="2">
-        <v>0.80649372333382796</v>
+        <v>-0.21929585732835799</v>
       </c>
       <c r="M132" s="1">
-        <v>575</v>
+        <v>362</v>
       </c>
       <c r="O132" s="2">
-        <v>2.2120000000000002</v>
+        <v>1.446</v>
       </c>
       <c r="Q132" s="1">
-        <v>54.173999999999999</v>
+        <v>70.149000000000001</v>
       </c>
       <c r="S132" s="1">
-        <v>71.111000000000004</v>
+        <v>73.7</v>
       </c>
       <c r="U132" s="1">
-        <v>76.947000000000003</v>
+        <v>78.900999999999996</v>
       </c>
       <c r="W132" s="1">
-        <v>50.189397950970097</v>
+        <v>51.41687296149</v>
       </c>
       <c r="Y132" s="1">
-        <v>37.084979254571202</v>
+        <v>23.0421742420836</v>
       </c>
       <c r="AA132" s="1">
-        <v>13.1044186963989</v>
+        <v>28.3746987194064</v>
       </c>
       <c r="AC132" s="1">
-        <v>78.296999999999997</v>
+        <v>60.042999999999999</v>
       </c>
       <c r="AE132" s="2">
-        <v>1.3785555878398901</v>
+        <v>-0.21938487578527099</v>
       </c>
       <c r="AG132" s="2">
-        <v>1.06292479670582</v>
+        <v>4.4327605104393297E-3</v>
       </c>
       <c r="AI132" s="2">
-        <v>3.1230000000000002</v>
+        <v>-0.77500000000000002</v>
       </c>
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.3">
@@ -8471,55 +8465,55 @@
         <v>131</v>
       </c>
       <c r="C133" s="1">
-        <v>109581</v>
+        <v>10197</v>
       </c>
       <c r="E133" s="1">
-        <v>39242</v>
+        <v>1643</v>
       </c>
       <c r="G133" s="1">
-        <v>10616</v>
+        <v>401</v>
       </c>
       <c r="I133" s="2">
-        <v>1.6193411232627499</v>
+        <v>-4.6662514833006798E-2</v>
       </c>
       <c r="K133" s="2">
-        <v>1.10161577622286</v>
+        <v>-0.25681615180808998</v>
       </c>
       <c r="M133" s="1">
-        <v>2183</v>
+        <v>78</v>
       </c>
       <c r="O133" s="2">
-        <v>2.4900000000000002</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="Q133" s="1">
-        <v>63.155000000000001</v>
+        <v>67.334999999999994</v>
       </c>
       <c r="S133" s="1">
-        <v>68.793000000000006</v>
+        <v>76.748999999999995</v>
       </c>
       <c r="U133" s="1">
-        <v>71.36</v>
+        <v>82.233000000000004</v>
       </c>
       <c r="W133" s="1">
-        <v>55.1694550352032</v>
+        <v>55.826912693923902</v>
       </c>
       <c r="Y133" s="1">
-        <v>46.617063248754597</v>
+        <v>20.341597322946001</v>
       </c>
       <c r="AA133" s="1">
-        <v>8.5523917864486094</v>
+        <v>35.485315370977901</v>
       </c>
       <c r="AC133" s="1">
-        <v>47.408000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="AE133" s="2">
-        <v>1.7489559318374699</v>
+        <v>0.89617055202784102</v>
       </c>
       <c r="AG133" s="2">
-        <v>1.7520097250245901</v>
+        <v>0.41119157613628299</v>
       </c>
       <c r="AI133" s="2">
-        <v>-0.63400000000000001</v>
+        <v>-0.58399999999999996</v>
       </c>
     </row>
     <row r="134" spans="2:35" x14ac:dyDescent="0.3">
@@ -8527,55 +8521,55 @@
         <v>132</v>
       </c>
       <c r="C134" s="1">
-        <v>37847</v>
+        <v>2881</v>
       </c>
       <c r="E134" s="1">
-        <v>6802</v>
+        <v>450</v>
       </c>
       <c r="G134" s="1">
-        <v>1885</v>
+        <v>135</v>
       </c>
       <c r="I134" s="2">
-        <v>-8.8517045428424701E-2</v>
+        <v>7.5315161224478704</v>
       </c>
       <c r="K134" s="2">
-        <v>-0.21929585732835799</v>
+        <v>1.3079913683690001</v>
       </c>
       <c r="M134" s="1">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="O134" s="2">
-        <v>1.446</v>
+        <v>1.827</v>
       </c>
       <c r="Q134" s="1">
-        <v>70.149000000000001</v>
+        <v>68.156000000000006</v>
       </c>
       <c r="S134" s="1">
-        <v>73.7</v>
+        <v>77.466999999999999</v>
       </c>
       <c r="U134" s="1">
-        <v>78.900999999999996</v>
+        <v>80.363</v>
       </c>
       <c r="W134" s="1">
-        <v>51.41687296149</v>
+        <v>18.103189949509002</v>
       </c>
       <c r="Y134" s="1">
-        <v>23.0421742420836</v>
+        <v>16.108349324005498</v>
       </c>
       <c r="AA134" s="1">
-        <v>28.3746987194064</v>
+        <v>1.9948406255034401</v>
       </c>
       <c r="AC134" s="1">
-        <v>60.042999999999999</v>
+        <v>99.234999999999999</v>
       </c>
       <c r="AE134" s="2">
-        <v>-0.21938487578527099</v>
+        <v>7.67393629381725</v>
       </c>
       <c r="AG134" s="2">
-        <v>4.4327605104393297E-3</v>
+        <v>1.33515887614851</v>
       </c>
       <c r="AI134" s="2">
-        <v>-0.77500000000000002</v>
+        <v>14.688000000000001</v>
       </c>
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.3">
@@ -8583,55 +8577,55 @@
         <v>133</v>
       </c>
       <c r="C135" s="1">
-        <v>10197</v>
+        <v>51269</v>
       </c>
       <c r="E135" s="1">
-        <v>1643</v>
+        <v>7846</v>
       </c>
       <c r="G135" s="1">
-        <v>401</v>
+        <v>1897</v>
       </c>
       <c r="I135" s="2">
-        <v>-4.6662514833006798E-2</v>
+        <v>0.37574169363891102</v>
       </c>
       <c r="K135" s="2">
-        <v>-0.25681615180808998</v>
+        <v>-2.07934602542259E-2</v>
       </c>
       <c r="M135" s="1">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="O135" s="2">
-        <v>1.3149999999999999</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="Q135" s="1">
-        <v>67.334999999999994</v>
+        <v>61.28</v>
       </c>
       <c r="S135" s="1">
-        <v>76.748999999999995</v>
+        <v>76.046999999999997</v>
       </c>
       <c r="U135" s="1">
-        <v>82.233000000000004</v>
+        <v>83.192999999999998</v>
       </c>
       <c r="W135" s="1">
-        <v>55.826912693923902</v>
+        <v>39.535629889982602</v>
       </c>
       <c r="Y135" s="1">
-        <v>20.341597322946001</v>
+        <v>17.501685640131502</v>
       </c>
       <c r="AA135" s="1">
-        <v>35.485315370977901</v>
+        <v>22.0339442498511</v>
       </c>
       <c r="AC135" s="1">
-        <v>66.31</v>
+        <v>81.414000000000001</v>
       </c>
       <c r="AE135" s="2">
-        <v>0.89617055202784102</v>
+        <v>0.48178631859221699</v>
       </c>
       <c r="AG135" s="2">
-        <v>0.41119157613628299</v>
+        <v>4.9837279559647202E-2</v>
       </c>
       <c r="AI135" s="2">
-        <v>-0.58399999999999996</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.3">
@@ -8639,55 +8633,55 @@
         <v>134</v>
       </c>
       <c r="C136" s="1">
-        <v>2881</v>
+        <v>4034</v>
       </c>
       <c r="E136" s="1">
-        <v>450</v>
+        <v>761</v>
       </c>
       <c r="G136" s="1">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="I136" s="2">
-        <v>7.5315161224478704</v>
+        <v>-0.195086441689971</v>
       </c>
       <c r="K136" s="2">
-        <v>1.3079913683690001</v>
+        <v>-0.33995136572812701</v>
       </c>
       <c r="M136" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O136" s="2">
-        <v>1.827</v>
+        <v>1.278</v>
       </c>
       <c r="Q136" s="1">
-        <v>68.156000000000006</v>
+        <v>65.045000000000002</v>
       </c>
       <c r="S136" s="1">
-        <v>77.466999999999999</v>
+        <v>67.006</v>
       </c>
       <c r="U136" s="1">
-        <v>80.363</v>
+        <v>72.006</v>
       </c>
       <c r="W136" s="1">
-        <v>18.103189949509002</v>
+        <v>39.6282821514029</v>
       </c>
       <c r="Y136" s="1">
-        <v>16.108349324005498</v>
+        <v>22.1845553919891</v>
       </c>
       <c r="AA136" s="1">
-        <v>1.9948406255034401</v>
+        <v>17.443726759413799</v>
       </c>
       <c r="AC136" s="1">
-        <v>99.234999999999999</v>
+        <v>42.848999999999997</v>
       </c>
       <c r="AE136" s="2">
-        <v>7.67393629381725</v>
+        <v>-0.38463350971981197</v>
       </c>
       <c r="AG136" s="2">
-        <v>1.33515887614851</v>
+        <v>0.20597587235158599</v>
       </c>
       <c r="AI136" s="2">
-        <v>14.688000000000001</v>
+        <v>-0.34200000000000003</v>
       </c>
     </row>
     <row r="137" spans="2:35" x14ac:dyDescent="0.3">
@@ -8695,55 +8689,55 @@
         <v>135</v>
       </c>
       <c r="C137" s="1">
-        <v>51269</v>
+        <v>19238</v>
       </c>
       <c r="E137" s="1">
-        <v>7846</v>
+        <v>3588</v>
       </c>
       <c r="G137" s="1">
-        <v>1897</v>
+        <v>940</v>
       </c>
       <c r="I137" s="2">
-        <v>0.37574169363891102</v>
+        <v>-0.66856459539537405</v>
       </c>
       <c r="K137" s="2">
-        <v>-2.07934602542259E-2</v>
+        <v>-0.45124599258548498</v>
       </c>
       <c r="M137" s="1">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="O137" s="2">
-        <v>1.0820000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="Q137" s="1">
-        <v>61.28</v>
+        <v>68.123000000000005</v>
       </c>
       <c r="S137" s="1">
-        <v>76.046999999999997</v>
+        <v>70.47</v>
       </c>
       <c r="U137" s="1">
-        <v>83.192999999999998</v>
+        <v>76.183000000000007</v>
       </c>
       <c r="W137" s="1">
-        <v>39.535629889982602</v>
+        <v>53.260276308037703</v>
       </c>
       <c r="Y137" s="1">
-        <v>17.501685640131502</v>
+        <v>23.786948920496201</v>
       </c>
       <c r="AA137" s="1">
-        <v>22.0339442498511</v>
+        <v>29.473327387541499</v>
       </c>
       <c r="AC137" s="1">
-        <v>81.414000000000001</v>
+        <v>54.194000000000003</v>
       </c>
       <c r="AE137" s="2">
-        <v>0.48178631859221699</v>
+        <v>-0.56283688678404098</v>
       </c>
       <c r="AG137" s="2">
-        <v>4.9837279559647202E-2</v>
+        <v>-5.1530729722357102E-2</v>
       </c>
       <c r="AI137" s="2">
-        <v>0.23</v>
+        <v>-3.7789999999999999</v>
       </c>
     </row>
     <row r="138" spans="2:35" x14ac:dyDescent="0.3">
@@ -8751,55 +8745,55 @@
         <v>136</v>
       </c>
       <c r="C138" s="1">
-        <v>4034</v>
+        <v>145934</v>
       </c>
       <c r="E138" s="1">
-        <v>761</v>
+        <v>31173</v>
       </c>
       <c r="G138" s="1">
-        <v>203</v>
+        <v>9272</v>
       </c>
       <c r="I138" s="2">
-        <v>-0.195086441689971</v>
+        <v>-1.53256466552353E-2</v>
       </c>
       <c r="K138" s="2">
-        <v>-0.33995136572812701</v>
+        <v>-0.16259788001497499</v>
       </c>
       <c r="M138" s="1">
-        <v>39</v>
+        <v>1766</v>
       </c>
       <c r="O138" s="2">
-        <v>1.278</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="Q138" s="1">
-        <v>65.045000000000002</v>
+        <v>68.5</v>
       </c>
       <c r="S138" s="1">
-        <v>67.006</v>
+        <v>65.081999999999994</v>
       </c>
       <c r="U138" s="1">
-        <v>72.006</v>
+        <v>72.742000000000004</v>
       </c>
       <c r="W138" s="1">
-        <v>39.6282821514029</v>
+        <v>51.220021660909197</v>
       </c>
       <c r="Y138" s="1">
-        <v>22.1845553919891</v>
+        <v>27.767417720424302</v>
       </c>
       <c r="AA138" s="1">
-        <v>17.443726759413799</v>
+        <v>23.452603940484899</v>
       </c>
       <c r="AC138" s="1">
-        <v>42.848999999999997</v>
+        <v>74.754000000000005</v>
       </c>
       <c r="AE138" s="2">
-        <v>-0.38463350971981197</v>
+        <v>7.4961105515196705E-2</v>
       </c>
       <c r="AG138" s="2">
-        <v>0.20597587235158599</v>
+        <v>0.116429518084052</v>
       </c>
       <c r="AI138" s="2">
-        <v>-0.34200000000000003</v>
+        <v>1.254</v>
       </c>
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.3">
@@ -8807,55 +8801,55 @@
         <v>137</v>
       </c>
       <c r="C139" s="1">
-        <v>19238</v>
+        <v>12952</v>
       </c>
       <c r="E139" s="1">
-        <v>3588</v>
+        <v>5948</v>
       </c>
       <c r="G139" s="1">
-        <v>940</v>
+        <v>1885</v>
       </c>
       <c r="I139" s="2">
-        <v>-0.66856459539537405</v>
+        <v>2.3340397897941099</v>
       </c>
       <c r="K139" s="2">
-        <v>-0.45124599258548498</v>
+        <v>2.0533225359574798</v>
       </c>
       <c r="M139" s="1">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="O139" s="2">
-        <v>1.64</v>
+        <v>3.9260000000000002</v>
       </c>
       <c r="Q139" s="1">
-        <v>68.123000000000005</v>
+        <v>44.695999999999998</v>
       </c>
       <c r="S139" s="1">
-        <v>70.47</v>
+        <v>48.649000000000001</v>
       </c>
       <c r="U139" s="1">
-        <v>76.183000000000007</v>
+        <v>69.328999999999994</v>
       </c>
       <c r="W139" s="1">
-        <v>53.260276308037703</v>
+        <v>74.196439090599497</v>
       </c>
       <c r="Y139" s="1">
-        <v>23.786948920496201</v>
+        <v>68.762759898453396</v>
       </c>
       <c r="AA139" s="1">
-        <v>29.473327387541499</v>
+        <v>5.4336791921461201</v>
       </c>
       <c r="AC139" s="1">
-        <v>54.194000000000003</v>
+        <v>17.431999999999999</v>
       </c>
       <c r="AE139" s="2">
-        <v>-0.56283688678404098</v>
+        <v>3.0731014037613602</v>
       </c>
       <c r="AG139" s="2">
-        <v>-5.1530729722357102E-2</v>
+        <v>3.1277851431972401</v>
       </c>
       <c r="AI139" s="2">
-        <v>-3.7789999999999999</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="140" spans="2:35" x14ac:dyDescent="0.3">
@@ -8863,55 +8857,55 @@
         <v>138</v>
       </c>
       <c r="C140" s="1">
-        <v>145934</v>
+        <v>184</v>
       </c>
       <c r="E140" s="1">
-        <v>31173</v>
+        <v>41</v>
       </c>
       <c r="G140" s="1">
-        <v>9272</v>
+        <v>11</v>
       </c>
       <c r="I140" s="2">
-        <v>-1.53256466552353E-2</v>
+        <v>0.75403893484989204</v>
       </c>
       <c r="K140" s="2">
-        <v>-0.16259788001497499</v>
+        <v>0.249668957654091</v>
       </c>
       <c r="M140" s="1">
-        <v>1766</v>
+        <v>2</v>
       </c>
       <c r="O140" s="2">
-        <v>1.8320000000000001</v>
+        <v>1.411</v>
       </c>
       <c r="Q140" s="1">
-        <v>68.5</v>
+        <v>63.667000000000002</v>
       </c>
       <c r="S140" s="1">
-        <v>65.081999999999994</v>
+        <v>73.319000000000003</v>
       </c>
       <c r="U140" s="1">
-        <v>72.742000000000004</v>
+        <v>76.343000000000004</v>
       </c>
       <c r="W140" s="1">
-        <v>51.220021660909197</v>
+        <v>39.371560851580597</v>
       </c>
       <c r="Y140" s="1">
-        <v>27.767417720424302</v>
+        <v>25.019164358088901</v>
       </c>
       <c r="AA140" s="1">
-        <v>23.452603940484899</v>
+        <v>14.3523964934917</v>
       </c>
       <c r="AC140" s="1">
-        <v>74.754000000000005</v>
+        <v>18.841000000000001</v>
       </c>
       <c r="AE140" s="2">
-        <v>7.4961105515196705E-2</v>
+        <v>-1.09388956506118</v>
       </c>
       <c r="AG140" s="2">
-        <v>0.116429518084052</v>
+        <v>0.95633522805614601</v>
       </c>
       <c r="AI140" s="2">
-        <v>1.254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:35" x14ac:dyDescent="0.3">
@@ -8919,55 +8913,55 @@
         <v>139</v>
       </c>
       <c r="C141" s="1">
-        <v>12952</v>
+        <v>111</v>
       </c>
       <c r="E141" s="1">
-        <v>5948</v>
+        <v>30</v>
       </c>
       <c r="G141" s="1">
-        <v>1885</v>
+        <v>8</v>
       </c>
       <c r="I141" s="2">
-        <v>2.3340397897941099</v>
+        <v>0.137597868072935</v>
       </c>
       <c r="K141" s="2">
-        <v>2.0533225359574798</v>
+        <v>0.16998159051817599</v>
       </c>
       <c r="M141" s="1">
-        <v>398</v>
+        <v>2</v>
       </c>
       <c r="O141" s="2">
-        <v>3.9260000000000002</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="Q141" s="1">
-        <v>44.695999999999998</v>
+        <v>63.691000000000003</v>
       </c>
       <c r="S141" s="1">
-        <v>48.649000000000001</v>
+        <v>70.808999999999997</v>
       </c>
       <c r="U141" s="1">
-        <v>69.328999999999994</v>
+        <v>72.658000000000001</v>
       </c>
       <c r="W141" s="1">
-        <v>74.196439090599497</v>
+        <v>46.660233446575603</v>
       </c>
       <c r="Y141" s="1">
-        <v>68.762759898453396</v>
+        <v>32.124681092942403</v>
       </c>
       <c r="AA141" s="1">
-        <v>5.4336791921461201</v>
+        <v>14.5355523536332</v>
       </c>
       <c r="AC141" s="1">
-        <v>17.431999999999999</v>
+        <v>53.031999999999996</v>
       </c>
       <c r="AE141" s="2">
-        <v>3.0731014037613602</v>
+        <v>0.90001787089112995</v>
       </c>
       <c r="AG141" s="2">
-        <v>3.1277851431972401</v>
+        <v>0.872553838428199</v>
       </c>
       <c r="AI141" s="2">
-        <v>-0.74</v>
+        <v>-1.8169999999999999</v>
       </c>
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.3">
@@ -8975,55 +8969,55 @@
         <v>140</v>
       </c>
       <c r="C142" s="1">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E142" s="1">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G142" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I142" s="2">
-        <v>0.75403893484989204</v>
+        <v>0.61273571538280802</v>
       </c>
       <c r="K142" s="2">
-        <v>0.249668957654091</v>
+        <v>0.95421163062360803</v>
       </c>
       <c r="M142" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O142" s="2">
-        <v>1.411</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="Q142" s="1">
-        <v>63.667000000000002</v>
+        <v>59.918999999999997</v>
       </c>
       <c r="S142" s="1">
-        <v>73.319000000000003</v>
+        <v>68.748000000000005</v>
       </c>
       <c r="U142" s="1">
-        <v>76.343000000000004</v>
+        <v>73.45</v>
       </c>
       <c r="W142" s="1">
-        <v>39.371560851580597</v>
+        <v>73.259631841838697</v>
       </c>
       <c r="Y142" s="1">
-        <v>25.019164358088901</v>
+        <v>64.451255719724799</v>
       </c>
       <c r="AA142" s="1">
-        <v>14.3523964934917</v>
+        <v>8.8083761221139394</v>
       </c>
       <c r="AC142" s="1">
-        <v>18.841000000000001</v>
+        <v>17.888999999999999</v>
       </c>
       <c r="AE142" s="2">
-        <v>-1.09388956506118</v>
+        <v>-0.36731406145050299</v>
       </c>
       <c r="AG142" s="2">
-        <v>0.95633522805614601</v>
+        <v>0.64354454331003197</v>
       </c>
       <c r="AI142" s="2">
-        <v>0</v>
+        <v>-14.302</v>
       </c>
     </row>
     <row r="143" spans="2:35" x14ac:dyDescent="0.3">
@@ -9031,55 +9025,55 @@
         <v>141</v>
       </c>
       <c r="C143" s="1">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="E143" s="1">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G143" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I143" s="2">
-        <v>0.137597868072935</v>
+        <v>2.0577244433089699</v>
       </c>
       <c r="K143" s="2">
-        <v>0.16998159051817599</v>
+        <v>1.83711762366799</v>
       </c>
       <c r="M143" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O143" s="2">
-        <v>1.8540000000000001</v>
+        <v>4.2140000000000004</v>
       </c>
       <c r="Q143" s="1">
-        <v>63.691000000000003</v>
+        <v>55.357999999999997</v>
       </c>
       <c r="S143" s="1">
-        <v>70.808999999999997</v>
+        <v>61.365000000000002</v>
       </c>
       <c r="U143" s="1">
-        <v>72.658000000000001</v>
+        <v>70.582999999999998</v>
       </c>
       <c r="W143" s="1">
-        <v>46.660233446575603</v>
+        <v>81.048483696954193</v>
       </c>
       <c r="Y143" s="1">
-        <v>32.124681092942403</v>
+        <v>75.602018983734098</v>
       </c>
       <c r="AA143" s="1">
-        <v>14.5355523536332</v>
+        <v>5.4464647132200499</v>
       </c>
       <c r="AC143" s="1">
-        <v>53.031999999999996</v>
+        <v>74.353999999999999</v>
       </c>
       <c r="AE143" s="2">
-        <v>0.90001787089112995</v>
+        <v>3.63190248071002</v>
       </c>
       <c r="AG143" s="2">
-        <v>0.872553838428199</v>
+        <v>2.5061092931196902</v>
       </c>
       <c r="AI143" s="2">
-        <v>-1.8169999999999999</v>
+        <v>-8.0280000000000005</v>
       </c>
     </row>
     <row r="144" spans="2:35" x14ac:dyDescent="0.3">
@@ -9087,55 +9081,55 @@
         <v>142</v>
       </c>
       <c r="C144" s="1">
-        <v>198</v>
+        <v>34814</v>
       </c>
       <c r="E144" s="1">
-        <v>86</v>
+        <v>9951</v>
       </c>
       <c r="G144" s="1">
-        <v>27</v>
+        <v>2978</v>
       </c>
       <c r="I144" s="2">
-        <v>0.61273571538280802</v>
+        <v>2.4839546266288202</v>
       </c>
       <c r="K144" s="2">
-        <v>0.95421163062360803</v>
+        <v>1.1070629005700201</v>
       </c>
       <c r="M144" s="1">
-        <v>5</v>
+        <v>585</v>
       </c>
       <c r="O144" s="2">
-        <v>3.7850000000000001</v>
+        <v>2.238</v>
       </c>
       <c r="Q144" s="1">
-        <v>59.918999999999997</v>
+        <v>52.703000000000003</v>
       </c>
       <c r="S144" s="1">
-        <v>68.748000000000005</v>
+        <v>72.561000000000007</v>
       </c>
       <c r="U144" s="1">
-        <v>73.45</v>
+        <v>75.28</v>
       </c>
       <c r="W144" s="1">
-        <v>73.259631841838697</v>
+        <v>39.265478402587597</v>
       </c>
       <c r="Y144" s="1">
-        <v>64.451255719724799</v>
+        <v>34.393332192717999</v>
       </c>
       <c r="AA144" s="1">
-        <v>8.8083761221139394</v>
+        <v>4.8721462098695696</v>
       </c>
       <c r="AC144" s="1">
-        <v>17.888999999999999</v>
+        <v>84.287000000000006</v>
       </c>
       <c r="AE144" s="2">
-        <v>-0.36731406145050299</v>
+        <v>2.7415870770150601</v>
       </c>
       <c r="AG144" s="2">
-        <v>0.64354454331003197</v>
+        <v>1.3406728520786999</v>
       </c>
       <c r="AI144" s="2">
-        <v>-14.302</v>
+        <v>4.0579999999999998</v>
       </c>
     </row>
     <row r="145" spans="2:35" x14ac:dyDescent="0.3">
@@ -9143,55 +9137,55 @@
         <v>143</v>
       </c>
       <c r="C145" s="1">
-        <v>219</v>
+        <v>16744</v>
       </c>
       <c r="E145" s="1">
-        <v>107</v>
+        <v>8225</v>
       </c>
       <c r="G145" s="1">
-        <v>32</v>
+        <v>2615</v>
       </c>
       <c r="I145" s="2">
-        <v>2.0577244433089699</v>
+        <v>2.5518332203620102</v>
       </c>
       <c r="K145" s="2">
-        <v>1.83711762366799</v>
+        <v>2.2946164140221499</v>
       </c>
       <c r="M145" s="1">
-        <v>7</v>
+        <v>560</v>
       </c>
       <c r="O145" s="2">
-        <v>4.2140000000000004</v>
+        <v>4.4909999999999997</v>
       </c>
       <c r="Q145" s="1">
-        <v>55.357999999999997</v>
+        <v>39.226999999999997</v>
       </c>
       <c r="S145" s="1">
-        <v>61.365000000000002</v>
+        <v>57.786999999999999</v>
       </c>
       <c r="U145" s="1">
-        <v>70.582999999999998</v>
+        <v>68.212999999999994</v>
       </c>
       <c r="W145" s="1">
-        <v>81.048483696954193</v>
+        <v>84.161069898459104</v>
       </c>
       <c r="Y145" s="1">
-        <v>75.602018983734098</v>
+        <v>78.437061668369395</v>
       </c>
       <c r="AA145" s="1">
-        <v>5.4464647132200499</v>
+        <v>5.7240082300896704</v>
       </c>
       <c r="AC145" s="1">
-        <v>74.353999999999999</v>
+        <v>48.122</v>
       </c>
       <c r="AE145" s="2">
-        <v>3.63190248071002</v>
+        <v>3.3941752643592702</v>
       </c>
       <c r="AG145" s="2">
-        <v>2.5061092931196902</v>
+        <v>3.21292723517363</v>
       </c>
       <c r="AI145" s="2">
-        <v>-8.0280000000000005</v>
+        <v>-1.2769999999999999</v>
       </c>
     </row>
     <row r="146" spans="2:35" x14ac:dyDescent="0.3">
@@ -9199,55 +9193,55 @@
         <v>144</v>
       </c>
       <c r="C146" s="1">
-        <v>34814</v>
+        <v>8737</v>
       </c>
       <c r="E146" s="1">
-        <v>9951</v>
+        <v>1649</v>
       </c>
       <c r="G146" s="1">
-        <v>2978</v>
+        <v>419</v>
       </c>
       <c r="I146" s="2">
-        <v>2.4839546266288202</v>
+        <v>-0.39227485051011401</v>
       </c>
       <c r="K146" s="2">
-        <v>1.1070629005700201</v>
+        <v>-0.52130385479989105</v>
       </c>
       <c r="M146" s="1">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="O146" s="2">
-        <v>2.238</v>
+        <v>1.4410000000000001</v>
       </c>
       <c r="Q146" s="1">
-        <v>52.703000000000003</v>
+        <v>67.738</v>
       </c>
       <c r="S146" s="1">
-        <v>72.561000000000007</v>
+        <v>72.037000000000006</v>
       </c>
       <c r="U146" s="1">
-        <v>75.28</v>
+        <v>76.144000000000005</v>
       </c>
       <c r="W146" s="1">
-        <v>39.265478402587597</v>
+        <v>52.498641236525401</v>
       </c>
       <c r="Y146" s="1">
-        <v>34.393332192717999</v>
+        <v>23.4346643339336</v>
       </c>
       <c r="AA146" s="1">
-        <v>4.8721462098695696</v>
+        <v>29.063976902591801</v>
       </c>
       <c r="AC146" s="1">
-        <v>84.287000000000006</v>
+        <v>56.445999999999998</v>
       </c>
       <c r="AE146" s="2">
-        <v>2.7415870770150601</v>
+        <v>-7.1510413173480405E-2</v>
       </c>
       <c r="AG146" s="2">
-        <v>1.3406728520786999</v>
+        <v>-7.6115829053586104E-2</v>
       </c>
       <c r="AI146" s="2">
-        <v>4.0579999999999998</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="147" spans="2:35" x14ac:dyDescent="0.3">
@@ -9255,55 +9249,55 @@
         <v>145</v>
       </c>
       <c r="C147" s="1">
-        <v>16744</v>
+        <v>98</v>
       </c>
       <c r="E147" s="1">
-        <v>8225</v>
+        <v>27</v>
       </c>
       <c r="G147" s="1">
-        <v>2615</v>
+        <v>8</v>
       </c>
       <c r="I147" s="2">
-        <v>2.5518332203620102</v>
+        <v>0.92383999511531301</v>
       </c>
       <c r="K147" s="2">
-        <v>2.2946164140221499</v>
+        <v>0.38002363270879203</v>
       </c>
       <c r="M147" s="1">
-        <v>560</v>
+        <v>2</v>
       </c>
       <c r="O147" s="2">
-        <v>4.4909999999999997</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="Q147" s="1">
-        <v>39.226999999999997</v>
+        <v>66.340999999999994</v>
       </c>
       <c r="S147" s="1">
-        <v>57.786999999999999</v>
+        <v>71.105000000000004</v>
       </c>
       <c r="U147" s="1">
-        <v>68.212999999999994</v>
+        <v>73.483000000000004</v>
       </c>
       <c r="W147" s="1">
-        <v>84.161069898459104</v>
+        <v>46.697296974759801</v>
       </c>
       <c r="Y147" s="1">
-        <v>78.437061668369395</v>
+        <v>34.863357002207799</v>
       </c>
       <c r="AA147" s="1">
-        <v>5.7240082300896704</v>
+        <v>11.8339399725521</v>
       </c>
       <c r="AC147" s="1">
-        <v>48.122</v>
+        <v>57.545999999999999</v>
       </c>
       <c r="AE147" s="2">
-        <v>3.3941752643592702</v>
+        <v>1.55212049632883</v>
       </c>
       <c r="AG147" s="2">
-        <v>3.21292723517363</v>
+        <v>1.0202815653989401</v>
       </c>
       <c r="AI147" s="2">
-        <v>-1.2769999999999999</v>
+        <v>-2.069</v>
       </c>
     </row>
     <row r="148" spans="2:35" x14ac:dyDescent="0.3">
@@ -9311,55 +9305,55 @@
         <v>146</v>
       </c>
       <c r="C148" s="1">
-        <v>8737</v>
+        <v>7977</v>
       </c>
       <c r="E148" s="1">
-        <v>1649</v>
+        <v>3758</v>
       </c>
       <c r="G148" s="1">
-        <v>419</v>
+        <v>1159</v>
       </c>
       <c r="I148" s="2">
-        <v>-0.39227485051011401</v>
+        <v>2.6374485870911801</v>
       </c>
       <c r="K148" s="2">
-        <v>-0.52130385479989105</v>
+        <v>1.7296408569788499</v>
       </c>
       <c r="M148" s="1">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="O148" s="2">
-        <v>1.4410000000000001</v>
+        <v>4.077</v>
       </c>
       <c r="Q148" s="1">
-        <v>67.738</v>
+        <v>36.097999999999999</v>
       </c>
       <c r="S148" s="1">
-        <v>72.037000000000006</v>
+        <v>39.441000000000003</v>
       </c>
       <c r="U148" s="1">
-        <v>76.144000000000005</v>
+        <v>55.066000000000003</v>
       </c>
       <c r="W148" s="1">
-        <v>52.498641236525401</v>
+        <v>76.276560035021106</v>
       </c>
       <c r="Y148" s="1">
-        <v>23.4346643339336</v>
+        <v>71.116334130118702</v>
       </c>
       <c r="AA148" s="1">
-        <v>29.063976902591801</v>
+        <v>5.1602259049024104</v>
       </c>
       <c r="AC148" s="1">
-        <v>56.445999999999998</v>
+        <v>42.923000000000002</v>
       </c>
       <c r="AE148" s="2">
-        <v>-7.1510413173480405E-2</v>
+        <v>3.5247443224872699</v>
       </c>
       <c r="AG148" s="2">
-        <v>-7.6115829053586104E-2</v>
+        <v>2.7172990954835998</v>
       </c>
       <c r="AI148" s="2">
-        <v>0.45400000000000001</v>
+        <v>-0.55400000000000005</v>
       </c>
     </row>
     <row r="149" spans="2:35" x14ac:dyDescent="0.3">
@@ -9367,55 +9361,55 @@
         <v>147</v>
       </c>
       <c r="C149" s="1">
-        <v>98</v>
+        <v>5850</v>
       </c>
       <c r="E149" s="1">
-        <v>27</v>
+        <v>867</v>
       </c>
       <c r="G149" s="1">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="I149" s="2">
-        <v>0.92383999511531301</v>
+        <v>1.77625645699491</v>
       </c>
       <c r="K149" s="2">
-        <v>0.38002363270879203</v>
+        <v>0.61885077790390397</v>
       </c>
       <c r="M149" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="O149" s="2">
-        <v>2.4140000000000001</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="Q149" s="1">
-        <v>66.340999999999994</v>
+        <v>68.087999999999994</v>
       </c>
       <c r="S149" s="1">
-        <v>71.105000000000004</v>
+        <v>77.968999999999994</v>
       </c>
       <c r="U149" s="1">
-        <v>73.483000000000004</v>
+        <v>83.766999999999996</v>
       </c>
       <c r="W149" s="1">
-        <v>46.697296974759801</v>
+        <v>34.504001316912401</v>
       </c>
       <c r="Y149" s="1">
-        <v>34.863357002207799</v>
+        <v>16.545597171949002</v>
       </c>
       <c r="AA149" s="1">
-        <v>11.8339399725521</v>
+        <v>17.958404144963399</v>
       </c>
       <c r="AC149" s="1">
-        <v>57.545999999999999</v>
+        <v>100</v>
       </c>
       <c r="AE149" s="2">
-        <v>1.55212049632883</v>
+        <v>1.77625645699491</v>
       </c>
       <c r="AG149" s="2">
-        <v>1.0202815653989401</v>
+        <v>0.61885077790390397</v>
       </c>
       <c r="AI149" s="2">
-        <v>-2.069</v>
+        <v>4.7240000000000002</v>
       </c>
     </row>
     <row r="150" spans="2:35" x14ac:dyDescent="0.3">
@@ -9423,55 +9417,55 @@
         <v>148</v>
       </c>
       <c r="C150" s="1">
-        <v>7977</v>
+        <v>5460</v>
       </c>
       <c r="E150" s="1">
-        <v>3758</v>
+        <v>1007</v>
       </c>
       <c r="G150" s="1">
-        <v>1159</v>
+        <v>284</v>
       </c>
       <c r="I150" s="2">
-        <v>2.6374485870911801</v>
+        <v>5.3006247948447702E-2</v>
       </c>
       <c r="K150" s="2">
-        <v>1.7296408569788499</v>
+        <v>-9.4126432055725004E-2</v>
       </c>
       <c r="M150" s="1">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c r="O150" s="2">
-        <v>4.077</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="Q150" s="1">
-        <v>36.097999999999999</v>
+        <v>70.150999999999996</v>
       </c>
       <c r="S150" s="1">
-        <v>39.441000000000003</v>
+        <v>73.287999999999997</v>
       </c>
       <c r="U150" s="1">
-        <v>55.066000000000003</v>
+        <v>77.685000000000002</v>
       </c>
       <c r="W150" s="1">
-        <v>76.276560035021106</v>
+        <v>47.6073474333703</v>
       </c>
       <c r="Y150" s="1">
-        <v>71.116334130118702</v>
+        <v>22.958174372445299</v>
       </c>
       <c r="AA150" s="1">
-        <v>5.1602259049024104</v>
+        <v>24.649173060925001</v>
       </c>
       <c r="AC150" s="1">
-        <v>42.923000000000002</v>
+        <v>53.76</v>
       </c>
       <c r="AE150" s="2">
-        <v>3.5247443224872699</v>
+        <v>-0.161156023332857</v>
       </c>
       <c r="AG150" s="2">
-        <v>2.7172990954835998</v>
+        <v>0.218189004283489</v>
       </c>
       <c r="AI150" s="2">
-        <v>-0.55400000000000005</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="151" spans="2:35" x14ac:dyDescent="0.3">
@@ -9479,55 +9473,55 @@
         <v>149</v>
       </c>
       <c r="C151" s="1">
-        <v>5850</v>
+        <v>2079</v>
       </c>
       <c r="E151" s="1">
-        <v>867</v>
+        <v>370</v>
       </c>
       <c r="G151" s="1">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="I151" s="2">
-        <v>1.77625645699491</v>
+        <v>0.213671799839069</v>
       </c>
       <c r="K151" s="2">
-        <v>0.61885077790390397</v>
+        <v>-9.9947225889739602E-2</v>
       </c>
       <c r="M151" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="O151" s="2">
-        <v>1.2230000000000001</v>
+        <v>1.619</v>
       </c>
       <c r="Q151" s="1">
-        <v>68.087999999999994</v>
+        <v>69.424999999999997</v>
       </c>
       <c r="S151" s="1">
-        <v>77.968999999999994</v>
+        <v>75.924000000000007</v>
       </c>
       <c r="U151" s="1">
-        <v>83.766999999999996</v>
+        <v>81.474999999999994</v>
       </c>
       <c r="W151" s="1">
-        <v>34.504001316912401</v>
+        <v>55.943213510419803</v>
       </c>
       <c r="Y151" s="1">
-        <v>16.545597171949002</v>
+        <v>23.604303843424599</v>
       </c>
       <c r="AA151" s="1">
-        <v>17.958404144963399</v>
+        <v>32.3389096669952</v>
       </c>
       <c r="AC151" s="1">
-        <v>100</v>
+        <v>55.118000000000002</v>
       </c>
       <c r="AE151" s="2">
-        <v>1.77625645699491</v>
+        <v>0.60646184282443405</v>
       </c>
       <c r="AG151" s="2">
-        <v>0.61885077790390397</v>
+        <v>0.489621598304261</v>
       </c>
       <c r="AI151" s="2">
-        <v>4.7240000000000002</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="152" spans="2:35" x14ac:dyDescent="0.3">
@@ -9535,55 +9529,55 @@
         <v>150</v>
       </c>
       <c r="C152" s="1">
-        <v>5460</v>
+        <v>687</v>
       </c>
       <c r="E152" s="1">
-        <v>1007</v>
+        <v>318</v>
       </c>
       <c r="G152" s="1">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="I152" s="2">
-        <v>5.3006247948447702E-2</v>
+        <v>2.42628841409143</v>
       </c>
       <c r="K152" s="2">
-        <v>-9.4126432055725004E-2</v>
+        <v>2.0919431753170801</v>
       </c>
       <c r="M152" s="1">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="O152" s="2">
-        <v>1.5329999999999999</v>
+        <v>4.3090000000000002</v>
       </c>
       <c r="Q152" s="1">
-        <v>70.150999999999996</v>
+        <v>56.203000000000003</v>
       </c>
       <c r="S152" s="1">
-        <v>73.287999999999997</v>
+        <v>67.441999999999993</v>
       </c>
       <c r="U152" s="1">
-        <v>77.685000000000002</v>
+        <v>73.132000000000005</v>
       </c>
       <c r="W152" s="1">
-        <v>47.6073474333703</v>
+        <v>77.623712193305494</v>
       </c>
       <c r="Y152" s="1">
-        <v>22.958174372445299</v>
+        <v>71.103738259754195</v>
       </c>
       <c r="AA152" s="1">
-        <v>24.649173060925001</v>
+        <v>6.5199739335512401</v>
       </c>
       <c r="AC152" s="1">
-        <v>53.76</v>
+        <v>24.67</v>
       </c>
       <c r="AE152" s="2">
-        <v>-0.161156023332857</v>
+        <v>4.54417195694898</v>
       </c>
       <c r="AG152" s="2">
-        <v>0.218189004283489</v>
+        <v>3.5983060909056701</v>
       </c>
       <c r="AI152" s="2">
-        <v>0.27300000000000002</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="153" spans="2:35" x14ac:dyDescent="0.3">
@@ -9591,55 +9585,55 @@
         <v>151</v>
       </c>
       <c r="C153" s="1">
-        <v>2079</v>
+        <v>15893</v>
       </c>
       <c r="E153" s="1">
-        <v>370</v>
+        <v>8460</v>
       </c>
       <c r="G153" s="1">
-        <v>101</v>
+        <v>2827</v>
       </c>
       <c r="I153" s="2">
-        <v>0.213671799839069</v>
+        <v>2.7760195813375201</v>
       </c>
       <c r="K153" s="2">
-        <v>-9.9947225889739602E-2</v>
+        <v>2.61532688862754</v>
       </c>
       <c r="M153" s="1">
-        <v>19</v>
+        <v>660</v>
       </c>
       <c r="O153" s="2">
-        <v>1.619</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="Q153" s="1">
-        <v>69.424999999999997</v>
+        <v>40.957000000000001</v>
       </c>
       <c r="S153" s="1">
-        <v>75.924000000000007</v>
+        <v>50.869</v>
       </c>
       <c r="U153" s="1">
-        <v>81.474999999999994</v>
+        <v>57.697000000000003</v>
       </c>
       <c r="W153" s="1">
-        <v>55.943213510419803</v>
+        <v>96.278781929905307</v>
       </c>
       <c r="Y153" s="1">
-        <v>23.604303843424599</v>
+        <v>90.582490291787295</v>
       </c>
       <c r="AA153" s="1">
-        <v>32.3389096669952</v>
+        <v>5.6962916381179403</v>
       </c>
       <c r="AC153" s="1">
-        <v>55.118000000000002</v>
+        <v>46.140999999999998</v>
       </c>
       <c r="AE153" s="2">
-        <v>0.60646184282443405</v>
+        <v>4.3366738109183904</v>
       </c>
       <c r="AG153" s="2">
-        <v>0.489621598304261</v>
+        <v>3.7272104924079099</v>
       </c>
       <c r="AI153" s="2">
-        <v>0.96399999999999997</v>
+        <v>-2.694</v>
       </c>
     </row>
     <row r="154" spans="2:35" x14ac:dyDescent="0.3">
@@ -9647,55 +9641,55 @@
         <v>152</v>
       </c>
       <c r="C154" s="1">
-        <v>687</v>
+        <v>59309</v>
       </c>
       <c r="E154" s="1">
-        <v>318</v>
+        <v>20064</v>
       </c>
       <c r="G154" s="1">
-        <v>103</v>
+        <v>5765</v>
       </c>
       <c r="I154" s="2">
-        <v>2.42628841409143</v>
+        <v>1.3181480709804601</v>
       </c>
       <c r="K154" s="2">
-        <v>2.0919431753170801</v>
+        <v>0.96575799377147598</v>
       </c>
       <c r="M154" s="1">
-        <v>22</v>
+        <v>1172</v>
       </c>
       <c r="O154" s="2">
-        <v>4.3090000000000002</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="Q154" s="1">
-        <v>56.203000000000003</v>
+        <v>52.62</v>
       </c>
       <c r="S154" s="1">
-        <v>67.441999999999993</v>
+        <v>56.048000000000002</v>
       </c>
       <c r="U154" s="1">
-        <v>73.132000000000005</v>
+        <v>64.379000000000005</v>
       </c>
       <c r="W154" s="1">
-        <v>77.623712193305494</v>
+        <v>52.231467167726599</v>
       </c>
       <c r="Y154" s="1">
-        <v>71.103738259754195</v>
+        <v>43.844370161696197</v>
       </c>
       <c r="AA154" s="1">
-        <v>6.5199739335512401</v>
+        <v>8.3870970060303804</v>
       </c>
       <c r="AC154" s="1">
-        <v>24.67</v>
+        <v>67.353999999999999</v>
       </c>
       <c r="AE154" s="2">
-        <v>4.54417195694898</v>
+        <v>2.12207728975581</v>
       </c>
       <c r="AG154" s="2">
-        <v>3.5983060909056701</v>
+        <v>1.5803597865213901</v>
       </c>
       <c r="AI154" s="2">
-        <v>-2.48</v>
+        <v>2.536</v>
       </c>
     </row>
     <row r="155" spans="2:35" x14ac:dyDescent="0.3">
@@ -9703,55 +9697,55 @@
         <v>153</v>
       </c>
       <c r="C155" s="1">
-        <v>15893</v>
+        <v>11194</v>
       </c>
       <c r="E155" s="1">
-        <v>8460</v>
+        <v>5366</v>
       </c>
       <c r="G155" s="1">
-        <v>2827</v>
+        <v>1707</v>
       </c>
       <c r="I155" s="2">
-        <v>2.7760195813375201</v>
+        <v>2.8138182991790002</v>
       </c>
       <c r="K155" s="2">
-        <v>2.61532688862754</v>
+        <v>1.92869669883401</v>
       </c>
       <c r="M155" s="1">
-        <v>660</v>
+        <v>390</v>
       </c>
       <c r="O155" s="2">
-        <v>5.8849999999999998</v>
+        <v>4.5430000000000001</v>
       </c>
       <c r="Q155" s="1">
-        <v>40.957000000000001</v>
+        <v>35.807000000000002</v>
       </c>
       <c r="S155" s="1">
-        <v>50.869</v>
+        <v>49.165999999999997</v>
       </c>
       <c r="U155" s="1">
-        <v>57.697000000000003</v>
+        <v>58.094999999999999</v>
       </c>
       <c r="W155" s="1">
-        <v>96.278781929905307</v>
+        <v>80.768110273477703</v>
       </c>
       <c r="Y155" s="1">
-        <v>90.582490291787295</v>
+        <v>74.707338807431299</v>
       </c>
       <c r="AA155" s="1">
-        <v>5.6962916381179403</v>
+        <v>6.06077146604646</v>
       </c>
       <c r="AC155" s="1">
-        <v>46.140999999999998</v>
+        <v>20.199000000000002</v>
       </c>
       <c r="AE155" s="2">
-        <v>4.3366738109183904</v>
+        <v>3.7758674537613999</v>
       </c>
       <c r="AG155" s="2">
-        <v>3.7272104924079099</v>
+        <v>3.5456441782442898</v>
       </c>
       <c r="AI155" s="2">
-        <v>-2.694</v>
+        <v>-15.901999999999999</v>
       </c>
     </row>
     <row r="156" spans="2:35" x14ac:dyDescent="0.3">
@@ -9759,55 +9753,55 @@
         <v>154</v>
       </c>
       <c r="C156" s="1">
-        <v>59309</v>
+        <v>46755</v>
       </c>
       <c r="E156" s="1">
-        <v>20064</v>
+        <v>8092</v>
       </c>
       <c r="G156" s="1">
-        <v>5765</v>
+        <v>1990</v>
       </c>
       <c r="I156" s="2">
-        <v>1.3181480709804601</v>
+        <v>0.64584841903553902</v>
       </c>
       <c r="K156" s="2">
-        <v>0.96575799377147598</v>
+        <v>-0.10258584466646201</v>
       </c>
       <c r="M156" s="1">
-        <v>1172</v>
+        <v>380</v>
       </c>
       <c r="O156" s="2">
-        <v>2.3580000000000001</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="Q156" s="1">
-        <v>52.62</v>
+        <v>71.995999999999995</v>
       </c>
       <c r="S156" s="1">
-        <v>56.048000000000002</v>
+        <v>79.328999999999994</v>
       </c>
       <c r="U156" s="1">
-        <v>64.379000000000005</v>
+        <v>83.692999999999998</v>
       </c>
       <c r="W156" s="1">
-        <v>52.231467167726599</v>
+        <v>52.385791444401697</v>
       </c>
       <c r="Y156" s="1">
-        <v>43.844370161696197</v>
+        <v>21.942746480883901</v>
       </c>
       <c r="AA156" s="1">
-        <v>8.3870970060303804</v>
+        <v>30.443044963517799</v>
       </c>
       <c r="AC156" s="1">
-        <v>67.353999999999999</v>
+        <v>80.81</v>
       </c>
       <c r="AE156" s="2">
-        <v>2.12207728975581</v>
+        <v>0.92168622899327202</v>
       </c>
       <c r="AG156" s="2">
-        <v>1.5803597865213901</v>
+        <v>0.174722147842059</v>
       </c>
       <c r="AI156" s="2">
-        <v>2.536</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="157" spans="2:35" x14ac:dyDescent="0.3">
@@ -9815,55 +9809,55 @@
         <v>155</v>
       </c>
       <c r="C157" s="1">
-        <v>11194</v>
+        <v>21413</v>
       </c>
       <c r="E157" s="1">
-        <v>5366</v>
+        <v>6087</v>
       </c>
       <c r="G157" s="1">
-        <v>1707</v>
+        <v>1660</v>
       </c>
       <c r="I157" s="2">
-        <v>2.8138182991790002</v>
+        <v>0.62545190328818001</v>
       </c>
       <c r="K157" s="2">
-        <v>1.92869669883401</v>
+        <v>0.25525718015658699</v>
       </c>
       <c r="M157" s="1">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="O157" s="2">
-        <v>4.5430000000000001</v>
+        <v>2.1739999999999999</v>
       </c>
       <c r="Q157" s="1">
-        <v>35.807000000000002</v>
+        <v>64.096999999999994</v>
       </c>
       <c r="S157" s="1">
-        <v>49.165999999999997</v>
+        <v>71.332999999999998</v>
       </c>
       <c r="U157" s="1">
-        <v>58.094999999999999</v>
+        <v>77.144000000000005</v>
       </c>
       <c r="W157" s="1">
-        <v>80.768110273477703</v>
+        <v>53.651647016209303</v>
       </c>
       <c r="Y157" s="1">
-        <v>74.707338807431299</v>
+        <v>36.392161094907102</v>
       </c>
       <c r="AA157" s="1">
-        <v>6.06077146604646</v>
+        <v>17.259485921302101</v>
       </c>
       <c r="AC157" s="1">
-        <v>20.199000000000002</v>
+        <v>18.713000000000001</v>
       </c>
       <c r="AE157" s="2">
-        <v>3.7758674537613999</v>
+        <v>0.710953582183944</v>
       </c>
       <c r="AG157" s="2">
-        <v>3.5456441782442898</v>
+        <v>1.34019734109178</v>
       </c>
       <c r="AI157" s="2">
-        <v>-15.901999999999999</v>
+        <v>-4.6310000000000002</v>
       </c>
     </row>
     <row r="158" spans="2:35" x14ac:dyDescent="0.3">
@@ -9871,55 +9865,55 @@
         <v>156</v>
       </c>
       <c r="C158" s="1">
-        <v>46755</v>
+        <v>5101</v>
       </c>
       <c r="E158" s="1">
-        <v>8092</v>
+        <v>2272</v>
       </c>
       <c r="G158" s="1">
-        <v>1990</v>
+        <v>693</v>
       </c>
       <c r="I158" s="2">
-        <v>0.64584841903553902</v>
+        <v>2.1852025335644298</v>
       </c>
       <c r="K158" s="2">
-        <v>-0.10258584466646201</v>
+        <v>1.97847734111231</v>
       </c>
       <c r="M158" s="1">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="O158" s="2">
-        <v>1.3560000000000001</v>
+        <v>3.4889999999999999</v>
       </c>
       <c r="Q158" s="1">
-        <v>71.995999999999995</v>
+        <v>55.771000000000001</v>
       </c>
       <c r="S158" s="1">
-        <v>79.328999999999994</v>
+        <v>71.022000000000006</v>
       </c>
       <c r="U158" s="1">
-        <v>83.692999999999998</v>
+        <v>74.212999999999994</v>
       </c>
       <c r="W158" s="1">
-        <v>52.385791444401697</v>
+        <v>71.165998018380805</v>
       </c>
       <c r="Y158" s="1">
-        <v>21.942746480883901</v>
+        <v>65.661216934288106</v>
       </c>
       <c r="AA158" s="1">
-        <v>30.443044963517799</v>
+        <v>5.5047810840926603</v>
       </c>
       <c r="AC158" s="1">
-        <v>80.81</v>
+        <v>76.718999999999994</v>
       </c>
       <c r="AE158" s="2">
-        <v>0.92168622899327202</v>
+        <v>2.4895545589670398</v>
       </c>
       <c r="AG158" s="2">
-        <v>0.174722147842059</v>
+        <v>2.3258229340223799</v>
       </c>
       <c r="AI158" s="2">
-        <v>0.85599999999999998</v>
+        <v>-2.194</v>
       </c>
     </row>
     <row r="159" spans="2:35" x14ac:dyDescent="0.3">
@@ -9927,55 +9921,55 @@
         <v>157</v>
       </c>
       <c r="C159" s="1">
-        <v>21413</v>
+        <v>43849</v>
       </c>
       <c r="E159" s="1">
-        <v>6087</v>
+        <v>20403</v>
       </c>
       <c r="G159" s="1">
-        <v>1660</v>
+        <v>6339</v>
       </c>
       <c r="I159" s="2">
-        <v>0.62545190328818001</v>
+        <v>2.2608896184963201</v>
       </c>
       <c r="K159" s="2">
-        <v>0.25525718015658699</v>
+        <v>2.1015836331478601</v>
       </c>
       <c r="M159" s="1">
-        <v>326</v>
+        <v>1383</v>
       </c>
       <c r="O159" s="2">
-        <v>2.1739999999999999</v>
+        <v>4.2889999999999997</v>
       </c>
       <c r="Q159" s="1">
-        <v>64.096999999999994</v>
+        <v>52.234000000000002</v>
       </c>
       <c r="S159" s="1">
-        <v>71.332999999999998</v>
+        <v>58.472000000000001</v>
       </c>
       <c r="U159" s="1">
-        <v>77.144000000000005</v>
+        <v>65.53</v>
       </c>
       <c r="W159" s="1">
-        <v>53.651647016209303</v>
+        <v>76.908140419556503</v>
       </c>
       <c r="Y159" s="1">
-        <v>36.392161094907102</v>
+        <v>70.408314022388495</v>
       </c>
       <c r="AA159" s="1">
-        <v>17.259485921302101</v>
+        <v>6.49982639716794</v>
       </c>
       <c r="AC159" s="1">
-        <v>18.713000000000001</v>
+        <v>35.253</v>
       </c>
       <c r="AE159" s="2">
-        <v>0.710953582183944</v>
+        <v>2.64881533598966</v>
       </c>
       <c r="AG159" s="2">
-        <v>1.34019734109178</v>
+        <v>3.1827335633956801</v>
       </c>
       <c r="AI159" s="2">
-        <v>-4.6310000000000002</v>
+        <v>-1.208</v>
       </c>
     </row>
     <row r="160" spans="2:35" x14ac:dyDescent="0.3">
@@ -9983,55 +9977,55 @@
         <v>158</v>
       </c>
       <c r="C160" s="1">
-        <v>5101</v>
+        <v>587</v>
       </c>
       <c r="E160" s="1">
-        <v>2272</v>
+        <v>187</v>
       </c>
       <c r="G160" s="1">
-        <v>693</v>
+        <v>52</v>
       </c>
       <c r="I160" s="2">
-        <v>2.1852025335644298</v>
+        <v>1.0460091667329201</v>
       </c>
       <c r="K160" s="2">
-        <v>1.97847734111231</v>
+        <v>0.68290370964344005</v>
       </c>
       <c r="M160" s="1">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="O160" s="2">
-        <v>3.4889999999999999</v>
+        <v>2.371</v>
       </c>
       <c r="Q160" s="1">
-        <v>55.771000000000001</v>
+        <v>62.911000000000001</v>
       </c>
       <c r="S160" s="1">
-        <v>71.022000000000006</v>
+        <v>67.822000000000003</v>
       </c>
       <c r="U160" s="1">
-        <v>74.212999999999994</v>
+        <v>71.802000000000007</v>
       </c>
       <c r="W160" s="1">
-        <v>71.165998018380805</v>
+        <v>51.058844129492101</v>
       </c>
       <c r="Y160" s="1">
-        <v>65.661216934288106</v>
+        <v>40.279594590418903</v>
       </c>
       <c r="AA160" s="1">
-        <v>5.5047810840926603</v>
+        <v>10.7792495390732</v>
       </c>
       <c r="AC160" s="1">
-        <v>76.718999999999994</v>
+        <v>66.149000000000001</v>
       </c>
       <c r="AE160" s="2">
-        <v>2.4895545589670398</v>
+        <v>1.0248200508276599</v>
       </c>
       <c r="AG160" s="2">
-        <v>2.3258229340223799</v>
+        <v>0.88217715179432998</v>
       </c>
       <c r="AI160" s="2">
-        <v>-2.194</v>
+        <v>-1.7450000000000001</v>
       </c>
     </row>
     <row r="161" spans="2:35" x14ac:dyDescent="0.3">
@@ -10039,55 +10033,55 @@
         <v>159</v>
       </c>
       <c r="C161" s="1">
-        <v>43849</v>
+        <v>10099</v>
       </c>
       <c r="E161" s="1">
-        <v>20403</v>
+        <v>2110</v>
       </c>
       <c r="G161" s="1">
-        <v>6339</v>
+        <v>601</v>
       </c>
       <c r="I161" s="2">
-        <v>2.2608896184963201</v>
+        <v>0.61179378184337196</v>
       </c>
       <c r="K161" s="2">
-        <v>2.1015836331478601</v>
+        <v>0.46558643965526503</v>
       </c>
       <c r="M161" s="1">
-        <v>1383</v>
+        <v>120</v>
       </c>
       <c r="O161" s="2">
-        <v>4.2889999999999997</v>
+        <v>1.843</v>
       </c>
       <c r="Q161" s="1">
-        <v>52.234000000000002</v>
+        <v>74.459999999999994</v>
       </c>
       <c r="S161" s="1">
-        <v>58.472000000000001</v>
+        <v>79.724999999999994</v>
       </c>
       <c r="U161" s="1">
-        <v>65.53</v>
+        <v>82.945999999999998</v>
       </c>
       <c r="W161" s="1">
-        <v>76.908140419556503</v>
+        <v>61.166502137286102</v>
       </c>
       <c r="Y161" s="1">
-        <v>70.408314022388495</v>
+        <v>28.403292630264701</v>
       </c>
       <c r="AA161" s="1">
-        <v>6.49982639716794</v>
+        <v>32.7632095070215</v>
       </c>
       <c r="AC161" s="1">
-        <v>35.253</v>
+        <v>87.977000000000004</v>
       </c>
       <c r="AE161" s="2">
-        <v>2.64881533598966</v>
+        <v>0.83059921955856097</v>
       </c>
       <c r="AG161" s="2">
-        <v>3.1827335633956801</v>
+        <v>0.69909053181844405</v>
       </c>
       <c r="AI161" s="2">
-        <v>-1.208</v>
+        <v>4.0270000000000001</v>
       </c>
     </row>
     <row r="162" spans="2:35" x14ac:dyDescent="0.3">
@@ -10095,55 +10089,55 @@
         <v>160</v>
       </c>
       <c r="C162" s="1">
-        <v>587</v>
+        <v>8655</v>
       </c>
       <c r="E162" s="1">
-        <v>187</v>
+        <v>1545</v>
       </c>
       <c r="G162" s="1">
-        <v>52</v>
+        <v>452</v>
       </c>
       <c r="I162" s="2">
-        <v>1.0460091667329201</v>
+        <v>0.91358687144126005</v>
       </c>
       <c r="K162" s="2">
-        <v>0.68290370964344005</v>
+        <v>0.54082798921693798</v>
       </c>
       <c r="M162" s="1">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="O162" s="2">
-        <v>2.371</v>
+        <v>1.546</v>
       </c>
       <c r="Q162" s="1">
-        <v>62.911000000000001</v>
+        <v>73.105000000000004</v>
       </c>
       <c r="S162" s="1">
-        <v>67.822000000000003</v>
+        <v>79.858000000000004</v>
       </c>
       <c r="U162" s="1">
-        <v>71.802000000000007</v>
+        <v>83.921000000000006</v>
       </c>
       <c r="W162" s="1">
-        <v>51.058844129492101</v>
+        <v>51.6442785093314</v>
       </c>
       <c r="Y162" s="1">
-        <v>40.279594590418903</v>
+        <v>22.683936596401999</v>
       </c>
       <c r="AA162" s="1">
-        <v>10.7792495390732</v>
+        <v>28.960341912929401</v>
       </c>
       <c r="AC162" s="1">
-        <v>66.149000000000001</v>
+        <v>73.915000000000006</v>
       </c>
       <c r="AE162" s="2">
-        <v>1.0248200508276599</v>
+        <v>0.94798441042792803</v>
       </c>
       <c r="AG162" s="2">
-        <v>0.88217715179432998</v>
+        <v>0.71768007171458204</v>
       </c>
       <c r="AI162" s="2">
-        <v>-1.7450000000000001</v>
+        <v>6.1349999999999998</v>
       </c>
     </row>
     <row r="163" spans="2:35" x14ac:dyDescent="0.3">
@@ -10151,55 +10145,55 @@
         <v>161</v>
       </c>
       <c r="C163" s="1">
-        <v>10099</v>
+        <v>17501</v>
       </c>
       <c r="E163" s="1">
-        <v>2110</v>
+        <v>6337</v>
       </c>
       <c r="G163" s="1">
-        <v>601</v>
+        <v>1919</v>
       </c>
       <c r="I163" s="2">
-        <v>0.61179378184337196</v>
+        <v>0.30617097353769201</v>
       </c>
       <c r="K163" s="2">
-        <v>0.46558643965526503</v>
+        <v>3.8322468546280901</v>
       </c>
       <c r="M163" s="1">
-        <v>120</v>
+        <v>421</v>
       </c>
       <c r="O163" s="2">
-        <v>1.843</v>
+        <v>2.734</v>
       </c>
       <c r="Q163" s="1">
-        <v>74.459999999999994</v>
+        <v>58.814</v>
       </c>
       <c r="S163" s="1">
-        <v>79.724999999999994</v>
+        <v>73.11</v>
       </c>
       <c r="U163" s="1">
-        <v>82.945999999999998</v>
+        <v>73.650999999999996</v>
       </c>
       <c r="W163" s="1">
-        <v>61.166502137286102</v>
+        <v>55.397972141475002</v>
       </c>
       <c r="Y163" s="1">
-        <v>28.403292630264701</v>
+        <v>47.823182571288797</v>
       </c>
       <c r="AA163" s="1">
-        <v>32.7632095070215</v>
+        <v>7.5747895701862298</v>
       </c>
       <c r="AC163" s="1">
-        <v>87.977000000000004</v>
+        <v>55.475000000000001</v>
       </c>
       <c r="AE163" s="2">
-        <v>0.83059921955856097</v>
+        <v>0.61906859627744404</v>
       </c>
       <c r="AG163" s="2">
-        <v>0.69909053181844405</v>
+        <v>4.80231924152163</v>
       </c>
       <c r="AI163" s="2">
-        <v>4.0270000000000001</v>
+        <v>-24.08</v>
       </c>
     </row>
     <row r="164" spans="2:35" x14ac:dyDescent="0.3">
@@ -10207,55 +10201,55 @@
         <v>162</v>
       </c>
       <c r="C164" s="1">
-        <v>8655</v>
+        <v>9538</v>
       </c>
       <c r="E164" s="1">
-        <v>1545</v>
+        <v>4047</v>
       </c>
       <c r="G164" s="1">
-        <v>452</v>
+        <v>1357</v>
       </c>
       <c r="I164" s="2">
-        <v>0.91358687144126005</v>
+        <v>2.0384130738320998</v>
       </c>
       <c r="K164" s="2">
-        <v>0.54082798921693798</v>
+        <v>1.74615100898037</v>
       </c>
       <c r="M164" s="1">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="O164" s="2">
-        <v>1.546</v>
+        <v>3.52</v>
       </c>
       <c r="Q164" s="1">
-        <v>73.105000000000004</v>
+        <v>54.006999999999998</v>
       </c>
       <c r="S164" s="1">
-        <v>79.858000000000004</v>
+        <v>61.973999999999997</v>
       </c>
       <c r="U164" s="1">
-        <v>83.921000000000006</v>
+        <v>71.301000000000002</v>
       </c>
       <c r="W164" s="1">
-        <v>51.6442785093314</v>
+        <v>67.925663430745502</v>
       </c>
       <c r="Y164" s="1">
-        <v>22.683936596401999</v>
+        <v>62.586050167254101</v>
       </c>
       <c r="AA164" s="1">
-        <v>28.960341912929401</v>
+        <v>5.3396132634913798</v>
       </c>
       <c r="AC164" s="1">
-        <v>73.915000000000006</v>
+        <v>27.506</v>
       </c>
       <c r="AE164" s="2">
-        <v>0.94798441042792803</v>
+        <v>2.2156592384190601</v>
       </c>
       <c r="AG164" s="2">
-        <v>0.71768007171458204</v>
+        <v>2.7652739810331299</v>
       </c>
       <c r="AI164" s="2">
-        <v>6.1349999999999998</v>
+        <v>-2.2229999999999999</v>
       </c>
     </row>
     <row r="165" spans="2:35" x14ac:dyDescent="0.3">
@@ -10263,55 +10257,55 @@
         <v>163</v>
       </c>
       <c r="C165" s="1">
-        <v>17501</v>
+        <v>69800</v>
       </c>
       <c r="E165" s="1">
-        <v>6337</v>
+        <v>14131</v>
       </c>
       <c r="G165" s="1">
-        <v>1919</v>
+        <v>3596</v>
       </c>
       <c r="I165" s="2">
-        <v>0.30617097353769201</v>
+        <v>0.49167148957113799</v>
       </c>
       <c r="K165" s="2">
-        <v>3.8322468546280901</v>
+        <v>7.0779384691651001E-2</v>
       </c>
       <c r="M165" s="1">
-        <v>421</v>
+        <v>697</v>
       </c>
       <c r="O165" s="2">
-        <v>2.734</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="Q165" s="1">
-        <v>58.814</v>
+        <v>59.384999999999998</v>
       </c>
       <c r="S165" s="1">
-        <v>73.11</v>
+        <v>70.623000000000005</v>
       </c>
       <c r="U165" s="1">
-        <v>73.650999999999996</v>
+        <v>77.343999999999994</v>
       </c>
       <c r="W165" s="1">
-        <v>55.397972141475002</v>
+        <v>41.864554062962497</v>
       </c>
       <c r="Y165" s="1">
-        <v>47.823182571288797</v>
+        <v>23.482121452965799</v>
       </c>
       <c r="AA165" s="1">
-        <v>7.5747895701862298</v>
+        <v>18.382432609996599</v>
       </c>
       <c r="AC165" s="1">
-        <v>55.475000000000001</v>
+        <v>51.43</v>
       </c>
       <c r="AE165" s="2">
-        <v>0.61906859627744404</v>
+        <v>2.84338447133445</v>
       </c>
       <c r="AG165" s="2">
-        <v>4.80231924152163</v>
+        <v>1.2292942680804699</v>
       </c>
       <c r="AI165" s="2">
-        <v>-24.08</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="166" spans="2:35" x14ac:dyDescent="0.3">
@@ -10319,55 +10313,55 @@
         <v>164</v>
       </c>
       <c r="C166" s="1">
-        <v>9538</v>
+        <v>1318</v>
       </c>
       <c r="E166" s="1">
-        <v>4047</v>
+        <v>579</v>
       </c>
       <c r="G166" s="1">
-        <v>1357</v>
+        <v>178</v>
       </c>
       <c r="I166" s="2">
-        <v>2.0384130738320998</v>
+        <v>1.9015952921073001</v>
       </c>
       <c r="K166" s="2">
-        <v>1.74615100898037</v>
+        <v>1.61097179043481</v>
       </c>
       <c r="M166" s="1">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="O166" s="2">
-        <v>3.52</v>
+        <v>3.8530000000000002</v>
       </c>
       <c r="Q166" s="1">
-        <v>54.006999999999998</v>
+        <v>39.529000000000003</v>
       </c>
       <c r="S166" s="1">
-        <v>61.973999999999997</v>
+        <v>59.002000000000002</v>
       </c>
       <c r="U166" s="1">
-        <v>71.301000000000002</v>
+        <v>69.712000000000003</v>
       </c>
       <c r="W166" s="1">
-        <v>67.925663430745502</v>
+        <v>69.822223023676997</v>
       </c>
       <c r="Y166" s="1">
-        <v>62.586050167254101</v>
+        <v>62.548849382894197</v>
       </c>
       <c r="AA166" s="1">
-        <v>5.3396132634913798</v>
+        <v>7.2733736407828298</v>
       </c>
       <c r="AC166" s="1">
-        <v>27.506</v>
+        <v>31.32</v>
       </c>
       <c r="AE166" s="2">
-        <v>2.2156592384190601</v>
+        <v>3.1173301249918701</v>
       </c>
       <c r="AG166" s="2">
-        <v>2.7652739810331299</v>
+        <v>2.6770813308156498</v>
       </c>
       <c r="AI166" s="2">
-        <v>-2.2229999999999999</v>
+        <v>-4.2830000000000004</v>
       </c>
     </row>
     <row r="167" spans="2:35" x14ac:dyDescent="0.3">
@@ -10375,55 +10369,55 @@
         <v>165</v>
       </c>
       <c r="C167" s="1">
-        <v>69800</v>
+        <v>8279</v>
       </c>
       <c r="E167" s="1">
-        <v>14131</v>
+        <v>3917</v>
       </c>
       <c r="G167" s="1">
-        <v>3596</v>
+        <v>1220</v>
       </c>
       <c r="I167" s="2">
-        <v>0.49167148957113799</v>
+        <v>2.4737464872253399</v>
       </c>
       <c r="K167" s="2">
-        <v>7.0779384691651001E-2</v>
+        <v>2.09291603550587</v>
       </c>
       <c r="M167" s="1">
-        <v>697</v>
+        <v>268</v>
       </c>
       <c r="O167" s="2">
-        <v>1.5009999999999999</v>
+        <v>4.1989999999999998</v>
       </c>
       <c r="Q167" s="1">
-        <v>59.384999999999998</v>
+        <v>46.567999999999998</v>
       </c>
       <c r="S167" s="1">
-        <v>70.623000000000005</v>
+        <v>53.491</v>
       </c>
       <c r="U167" s="1">
-        <v>77.343999999999994</v>
+        <v>61.34</v>
       </c>
       <c r="W167" s="1">
-        <v>41.864554062962497</v>
+        <v>77.120669669619602</v>
       </c>
       <c r="Y167" s="1">
-        <v>23.482121452965799</v>
+        <v>71.975278055551598</v>
       </c>
       <c r="AA167" s="1">
-        <v>18.382432609996599</v>
+        <v>5.1453916140679201</v>
       </c>
       <c r="AC167" s="1">
-        <v>51.43</v>
+        <v>42.8</v>
       </c>
       <c r="AE167" s="2">
-        <v>2.84338447133445</v>
+        <v>3.7254260181322101</v>
       </c>
       <c r="AG167" s="2">
-        <v>1.2292942680804699</v>
+        <v>3.2480510534632998</v>
       </c>
       <c r="AI167" s="2">
-        <v>0.28100000000000003</v>
+        <v>-0.25600000000000001</v>
       </c>
     </row>
     <row r="168" spans="2:35" x14ac:dyDescent="0.3">
@@ -10431,55 +10425,55 @@
         <v>166</v>
       </c>
       <c r="C168" s="1">
-        <v>1318</v>
+        <v>106</v>
       </c>
       <c r="E168" s="1">
-        <v>579</v>
+        <v>44</v>
       </c>
       <c r="G168" s="1">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I168" s="2">
-        <v>1.9015952921073001</v>
+        <v>0.36188981851197199</v>
       </c>
       <c r="K168" s="2">
-        <v>1.61097179043481</v>
+        <v>0.81543495186939197</v>
       </c>
       <c r="M168" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="O168" s="2">
-        <v>3.8530000000000002</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="Q168" s="1">
-        <v>39.529000000000003</v>
+        <v>64</v>
       </c>
       <c r="S168" s="1">
-        <v>59.002000000000002</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="U168" s="1">
-        <v>69.712000000000003</v>
+        <v>71.018000000000001</v>
       </c>
       <c r="W168" s="1">
-        <v>69.822223023676997</v>
+        <v>68.586512696184798</v>
       </c>
       <c r="Y168" s="1">
-        <v>62.548849382894197</v>
+        <v>58.603419675896397</v>
       </c>
       <c r="AA168" s="1">
-        <v>7.2733736407828298</v>
+        <v>9.9830930202883792</v>
       </c>
       <c r="AC168" s="1">
-        <v>31.32</v>
+        <v>23.099</v>
       </c>
       <c r="AE168" s="2">
-        <v>3.1173301249918701</v>
+        <v>0.379858902066114</v>
       </c>
       <c r="AG168" s="2">
-        <v>2.6770813308156498</v>
+        <v>1.0963817645442699</v>
       </c>
       <c r="AI168" s="2">
-        <v>-4.2830000000000004</v>
+        <v>-7.7469999999999999</v>
       </c>
     </row>
     <row r="169" spans="2:35" x14ac:dyDescent="0.3">
@@ -10487,55 +10481,55 @@
         <v>167</v>
       </c>
       <c r="C169" s="1">
-        <v>8279</v>
+        <v>1399</v>
       </c>
       <c r="E169" s="1">
-        <v>3917</v>
+        <v>335</v>
       </c>
       <c r="G169" s="1">
-        <v>1220</v>
+        <v>88</v>
       </c>
       <c r="I169" s="2">
-        <v>2.4737464872253399</v>
+        <v>0.47300577299004198</v>
       </c>
       <c r="K169" s="2">
-        <v>2.09291603550587</v>
+        <v>8.9988616610430505E-2</v>
       </c>
       <c r="M169" s="1">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="O169" s="2">
-        <v>4.1989999999999998</v>
+        <v>1.6990000000000001</v>
       </c>
       <c r="Q169" s="1">
-        <v>46.567999999999998</v>
+        <v>64.7</v>
       </c>
       <c r="S169" s="1">
-        <v>53.491</v>
+        <v>69.412999999999997</v>
       </c>
       <c r="U169" s="1">
-        <v>61.34</v>
+        <v>73.628</v>
       </c>
       <c r="W169" s="1">
-        <v>77.120669669619602</v>
+        <v>46.149644831626603</v>
       </c>
       <c r="Y169" s="1">
-        <v>71.975278055551598</v>
+        <v>29.3210759690635</v>
       </c>
       <c r="AA169" s="1">
-        <v>5.1453916140679201</v>
+        <v>16.828568862563099</v>
       </c>
       <c r="AC169" s="1">
-        <v>42.8</v>
+        <v>53.213999999999999</v>
       </c>
       <c r="AE169" s="2">
-        <v>3.7254260181322101</v>
+        <v>0.23809004929022701</v>
       </c>
       <c r="AG169" s="2">
-        <v>3.2480510534632998</v>
+        <v>0.35697656507951903</v>
       </c>
       <c r="AI169" s="2">
-        <v>-0.25600000000000001</v>
+        <v>-0.57799999999999996</v>
       </c>
     </row>
     <row r="170" spans="2:35" x14ac:dyDescent="0.3">
@@ -10543,55 +10537,55 @@
         <v>168</v>
       </c>
       <c r="C170" s="1">
-        <v>106</v>
+        <v>11819</v>
       </c>
       <c r="E170" s="1">
-        <v>44</v>
+        <v>3344</v>
       </c>
       <c r="G170" s="1">
-        <v>12</v>
+        <v>1004</v>
       </c>
       <c r="I170" s="2">
-        <v>0.36188981851197199</v>
+        <v>0.93661930345886402</v>
       </c>
       <c r="K170" s="2">
-        <v>0.81543495186939197</v>
+        <v>0.69370148373357698</v>
       </c>
       <c r="M170" s="1">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="O170" s="2">
-        <v>3.4809999999999999</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="Q170" s="1">
-        <v>64</v>
+        <v>51.145000000000003</v>
       </c>
       <c r="S170" s="1">
-        <v>69.667000000000002</v>
+        <v>73.171999999999997</v>
       </c>
       <c r="U170" s="1">
-        <v>71.018000000000001</v>
+        <v>76.891000000000005</v>
       </c>
       <c r="W170" s="1">
-        <v>68.586512696184798</v>
+        <v>49.619217607607702</v>
       </c>
       <c r="Y170" s="1">
-        <v>58.603419675896397</v>
+        <v>36.343554753048203</v>
       </c>
       <c r="AA170" s="1">
-        <v>9.9830930202883792</v>
+        <v>13.2756628545596</v>
       </c>
       <c r="AC170" s="1">
-        <v>23.099</v>
+        <v>69.567999999999998</v>
       </c>
       <c r="AE170" s="2">
-        <v>0.379858902066114</v>
+        <v>1.37631561550004</v>
       </c>
       <c r="AG170" s="2">
-        <v>1.0963817645442699</v>
+        <v>1.12960374813173</v>
       </c>
       <c r="AI170" s="2">
-        <v>-7.7469999999999999</v>
+        <v>-0.34799999999999998</v>
       </c>
     </row>
     <row r="171" spans="2:35" x14ac:dyDescent="0.3">
@@ -10599,55 +10593,55 @@
         <v>169</v>
       </c>
       <c r="C171" s="1">
-        <v>1399</v>
+        <v>84339</v>
       </c>
       <c r="E171" s="1">
-        <v>335</v>
+        <v>24281</v>
       </c>
       <c r="G171" s="1">
-        <v>88</v>
+        <v>6567</v>
       </c>
       <c r="I171" s="2">
-        <v>0.47300577299004198</v>
+        <v>1.3709765440471799</v>
       </c>
       <c r="K171" s="2">
-        <v>8.9988616610430505E-2</v>
+        <v>0.50511344854134499</v>
       </c>
       <c r="M171" s="1">
-        <v>17</v>
+        <v>1301</v>
       </c>
       <c r="O171" s="2">
-        <v>1.6990000000000001</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="Q171" s="1">
-        <v>64.7</v>
+        <v>52.286000000000001</v>
       </c>
       <c r="S171" s="1">
-        <v>69.412999999999997</v>
+        <v>70.004999999999995</v>
       </c>
       <c r="U171" s="1">
-        <v>73.628</v>
+        <v>77.927999999999997</v>
       </c>
       <c r="W171" s="1">
-        <v>46.149644831626603</v>
+        <v>49.082685010627301</v>
       </c>
       <c r="Y171" s="1">
-        <v>29.3210759690635</v>
+        <v>35.693462316088599</v>
       </c>
       <c r="AA171" s="1">
-        <v>16.828568862563099</v>
+        <v>13.389222694538701</v>
       </c>
       <c r="AC171" s="1">
-        <v>53.213999999999999</v>
+        <v>76.105000000000004</v>
       </c>
       <c r="AE171" s="2">
-        <v>0.23809004929022701</v>
+        <v>2.1410683104845001</v>
       </c>
       <c r="AG171" s="2">
-        <v>0.35697656507951903</v>
+        <v>0.98688992492458705</v>
       </c>
       <c r="AI171" s="2">
-        <v>-0.57799999999999996</v>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="172" spans="2:35" x14ac:dyDescent="0.3">
@@ -10655,55 +10649,55 @@
         <v>170</v>
       </c>
       <c r="C172" s="1">
-        <v>11819</v>
+        <v>6031</v>
       </c>
       <c r="E172" s="1">
-        <v>3344</v>
+        <v>2152</v>
       </c>
       <c r="G172" s="1">
-        <v>1004</v>
+        <v>661</v>
       </c>
       <c r="I172" s="2">
-        <v>0.93661930345886402</v>
+        <v>1.37756595667641</v>
       </c>
       <c r="K172" s="2">
-        <v>0.69370148373357698</v>
+        <v>1.0671025775157601</v>
       </c>
       <c r="M172" s="1">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="O172" s="2">
-        <v>2.1509999999999998</v>
+        <v>2.7010000000000001</v>
       </c>
       <c r="Q172" s="1">
-        <v>51.145000000000003</v>
+        <v>58.472000000000001</v>
       </c>
       <c r="S172" s="1">
-        <v>73.171999999999997</v>
+        <v>63.613</v>
       </c>
       <c r="U172" s="1">
-        <v>76.891000000000005</v>
+        <v>68.313000000000002</v>
       </c>
       <c r="W172" s="1">
-        <v>49.619217607607702</v>
+        <v>55.182593123393502</v>
       </c>
       <c r="Y172" s="1">
-        <v>36.343554753048203</v>
+        <v>47.7835641745422</v>
       </c>
       <c r="AA172" s="1">
-        <v>13.2756628545596</v>
+        <v>7.3990289488512797</v>
       </c>
       <c r="AC172" s="1">
-        <v>69.567999999999998</v>
+        <v>52.515999999999998</v>
       </c>
       <c r="AE172" s="2">
-        <v>1.37631561550004</v>
+        <v>2.01742111717618</v>
       </c>
       <c r="AG172" s="2">
-        <v>1.12960374813173</v>
+        <v>1.9509158670088</v>
       </c>
       <c r="AI172" s="2">
-        <v>-0.34799999999999998</v>
+        <v>-0.86199999999999999</v>
       </c>
     </row>
     <row r="173" spans="2:35" x14ac:dyDescent="0.3">
@@ -10711,55 +10705,55 @@
         <v>171</v>
       </c>
       <c r="C173" s="1">
-        <v>84339</v>
+        <v>45741</v>
       </c>
       <c r="E173" s="1">
-        <v>24281</v>
+        <v>24317</v>
       </c>
       <c r="G173" s="1">
-        <v>6567</v>
+        <v>7796</v>
       </c>
       <c r="I173" s="2">
-        <v>1.3709765440471799</v>
+        <v>3.1410724433244801</v>
       </c>
       <c r="K173" s="2">
-        <v>0.50511344854134499</v>
+        <v>2.3812489919761202</v>
       </c>
       <c r="M173" s="1">
-        <v>1301</v>
+        <v>1670</v>
       </c>
       <c r="O173" s="2">
-        <v>2.0390000000000001</v>
+        <v>4.7030000000000003</v>
       </c>
       <c r="Q173" s="1">
-        <v>52.286000000000001</v>
+        <v>49.250999999999998</v>
       </c>
       <c r="S173" s="1">
-        <v>70.004999999999995</v>
+        <v>46.228999999999999</v>
       </c>
       <c r="U173" s="1">
-        <v>77.927999999999997</v>
+        <v>63.713000000000001</v>
       </c>
       <c r="W173" s="1">
-        <v>49.082685010627301</v>
+        <v>92.313546128763306</v>
       </c>
       <c r="Y173" s="1">
-        <v>35.693462316088599</v>
+        <v>88.494788812053002</v>
       </c>
       <c r="AA173" s="1">
-        <v>13.389222694538701</v>
+        <v>3.8187573167103599</v>
       </c>
       <c r="AC173" s="1">
-        <v>76.105000000000004</v>
+        <v>24.954000000000001</v>
       </c>
       <c r="AE173" s="2">
-        <v>2.1410683104845001</v>
+        <v>5.6332312188193399</v>
       </c>
       <c r="AG173" s="2">
-        <v>0.98688992492458705</v>
+        <v>4.4099724527034603</v>
       </c>
       <c r="AI173" s="2">
-        <v>3.4870000000000001</v>
+        <v>4.0179999999999998</v>
       </c>
     </row>
     <row r="174" spans="2:35" x14ac:dyDescent="0.3">
@@ -10767,55 +10761,55 @@
         <v>172</v>
       </c>
       <c r="C174" s="1">
-        <v>6031</v>
+        <v>43734</v>
       </c>
       <c r="E174" s="1">
-        <v>2152</v>
+        <v>8200</v>
       </c>
       <c r="G174" s="1">
-        <v>661</v>
+        <v>2114</v>
       </c>
       <c r="I174" s="2">
-        <v>1.37756595667641</v>
+        <v>-0.52566459493320905</v>
       </c>
       <c r="K174" s="2">
-        <v>1.0671025775157601</v>
+        <v>-0.61293006625041702</v>
       </c>
       <c r="M174" s="1">
-        <v>135</v>
+        <v>396</v>
       </c>
       <c r="O174" s="2">
-        <v>2.7010000000000001</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="Q174" s="1">
-        <v>58.472000000000001</v>
+        <v>70.777000000000001</v>
       </c>
       <c r="S174" s="1">
-        <v>63.613</v>
+        <v>67.257999999999996</v>
       </c>
       <c r="U174" s="1">
-        <v>68.313000000000002</v>
+        <v>72.183999999999997</v>
       </c>
       <c r="W174" s="1">
-        <v>55.182593123393502</v>
+        <v>49.119432182369799</v>
       </c>
       <c r="Y174" s="1">
-        <v>47.7835641745422</v>
+        <v>23.8449675818419</v>
       </c>
       <c r="AA174" s="1">
-        <v>7.3990289488512797</v>
+        <v>25.274464600527899</v>
       </c>
       <c r="AC174" s="1">
-        <v>52.515999999999998</v>
+        <v>69.608000000000004</v>
       </c>
       <c r="AE174" s="2">
-        <v>2.01742111717618</v>
+        <v>-0.354116770025663</v>
       </c>
       <c r="AG174" s="2">
-        <v>1.9509158670088</v>
+        <v>-0.34487812579017602</v>
       </c>
       <c r="AI174" s="2">
-        <v>-0.86199999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="175" spans="2:35" x14ac:dyDescent="0.3">
@@ -10823,55 +10817,55 @@
         <v>173</v>
       </c>
       <c r="C175" s="1">
-        <v>45741</v>
+        <v>9890</v>
       </c>
       <c r="E175" s="1">
-        <v>24317</v>
+        <v>1685</v>
       </c>
       <c r="G175" s="1">
-        <v>7796</v>
+        <v>499</v>
       </c>
       <c r="I175" s="2">
-        <v>3.1410724433244801</v>
+        <v>5.4725384170245004</v>
       </c>
       <c r="K175" s="2">
-        <v>2.3812489919761202</v>
+        <v>0.68213420017741999</v>
       </c>
       <c r="M175" s="1">
-        <v>1670</v>
+        <v>100</v>
       </c>
       <c r="O175" s="2">
-        <v>4.7030000000000003</v>
+        <v>1.369</v>
       </c>
       <c r="Q175" s="1">
-        <v>49.250999999999998</v>
+        <v>61.215000000000003</v>
       </c>
       <c r="S175" s="1">
-        <v>46.228999999999999</v>
+        <v>74.326999999999998</v>
       </c>
       <c r="U175" s="1">
-        <v>63.713000000000001</v>
+        <v>78.12</v>
       </c>
       <c r="W175" s="1">
-        <v>92.313546128763306</v>
+        <v>19.158904683598902</v>
       </c>
       <c r="Y175" s="1">
-        <v>88.494788812053002</v>
+        <v>17.6522982582179</v>
       </c>
       <c r="AA175" s="1">
-        <v>3.8187573167103599</v>
+        <v>1.5066064253810501</v>
       </c>
       <c r="AC175" s="1">
-        <v>24.954000000000001</v>
+        <v>87.048000000000002</v>
       </c>
       <c r="AE175" s="2">
-        <v>5.6332312188193399</v>
+        <v>5.8605736488638298</v>
       </c>
       <c r="AG175" s="2">
-        <v>4.4099724527034603</v>
+        <v>0.90842592871526195</v>
       </c>
       <c r="AI175" s="2">
-        <v>4.0179999999999998</v>
+        <v>4.1769999999999996</v>
       </c>
     </row>
     <row r="176" spans="2:35" x14ac:dyDescent="0.3">
@@ -10879,55 +10873,55 @@
         <v>174</v>
       </c>
       <c r="C176" s="1">
-        <v>43734</v>
+        <v>67886</v>
       </c>
       <c r="E176" s="1">
-        <v>8200</v>
+        <v>14199</v>
       </c>
       <c r="G176" s="1">
-        <v>2114</v>
+        <v>3924</v>
       </c>
       <c r="I176" s="2">
-        <v>-0.52566459493320905</v>
+        <v>0.67425335062876102</v>
       </c>
       <c r="K176" s="2">
-        <v>-0.61293006625041702</v>
+        <v>0.34160806418582101</v>
       </c>
       <c r="M176" s="1">
-        <v>396</v>
+        <v>771</v>
       </c>
       <c r="O176" s="2">
-        <v>1.4339999999999999</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="Q176" s="1">
-        <v>70.777000000000001</v>
+        <v>71.947999999999993</v>
       </c>
       <c r="S176" s="1">
-        <v>67.257999999999996</v>
+        <v>77.760999999999996</v>
       </c>
       <c r="U176" s="1">
-        <v>72.183999999999997</v>
+        <v>81.426000000000002</v>
       </c>
       <c r="W176" s="1">
-        <v>49.119432182369799</v>
+        <v>57.061375952522603</v>
       </c>
       <c r="Y176" s="1">
-        <v>23.8449675818419</v>
+        <v>27.764172239909001</v>
       </c>
       <c r="AA176" s="1">
-        <v>25.274464600527899</v>
+        <v>29.297203712613701</v>
       </c>
       <c r="AC176" s="1">
-        <v>69.608000000000004</v>
+        <v>83.903000000000006</v>
       </c>
       <c r="AE176" s="2">
-        <v>-0.354116770025663</v>
+        <v>0.98206775875099706</v>
       </c>
       <c r="AG176" s="2">
-        <v>-0.34487812579017602</v>
+        <v>0.59610261884260196</v>
       </c>
       <c r="AI176" s="2">
-        <v>0.22600000000000001</v>
+        <v>3.8980000000000001</v>
       </c>
     </row>
     <row r="177" spans="2:35" x14ac:dyDescent="0.3">
@@ -10935,55 +10929,55 @@
         <v>175</v>
       </c>
       <c r="C177" s="1">
-        <v>9890</v>
+        <v>59734</v>
       </c>
       <c r="E177" s="1">
-        <v>1685</v>
+        <v>30030</v>
       </c>
       <c r="G177" s="1">
-        <v>499</v>
+        <v>9739</v>
       </c>
       <c r="I177" s="2">
-        <v>5.4725384170245004</v>
+        <v>2.7542098426748698</v>
       </c>
       <c r="K177" s="2">
-        <v>0.68213420017741999</v>
+        <v>2.5600052772923898</v>
       </c>
       <c r="M177" s="1">
-        <v>100</v>
+        <v>2153</v>
       </c>
       <c r="O177" s="2">
-        <v>1.369</v>
+        <v>4.7729999999999997</v>
       </c>
       <c r="Q177" s="1">
-        <v>61.215000000000003</v>
+        <v>46.783999999999999</v>
       </c>
       <c r="S177" s="1">
-        <v>74.326999999999998</v>
+        <v>50.801000000000002</v>
       </c>
       <c r="U177" s="1">
-        <v>78.12</v>
+        <v>65.814999999999998</v>
       </c>
       <c r="W177" s="1">
-        <v>19.158904683598902</v>
+        <v>85.866761631566703</v>
       </c>
       <c r="Y177" s="1">
-        <v>17.6522982582179</v>
+        <v>80.953208628114993</v>
       </c>
       <c r="AA177" s="1">
-        <v>1.5066064253810501</v>
+        <v>4.9135530034516597</v>
       </c>
       <c r="AC177" s="1">
-        <v>87.048000000000002</v>
+        <v>35.226999999999997</v>
       </c>
       <c r="AE177" s="2">
-        <v>5.8605736488638298</v>
+        <v>4.9295557928608904</v>
       </c>
       <c r="AG177" s="2">
-        <v>0.90842592871526195</v>
+        <v>4.2549453214046302</v>
       </c>
       <c r="AI177" s="2">
-        <v>4.1769999999999996</v>
+        <v>-0.72099999999999997</v>
       </c>
     </row>
     <row r="178" spans="2:35" x14ac:dyDescent="0.3">
@@ -10991,55 +10985,55 @@
         <v>176</v>
       </c>
       <c r="C178" s="1">
-        <v>67886</v>
+        <v>331003</v>
       </c>
       <c r="E178" s="1">
-        <v>14199</v>
+        <v>73493</v>
       </c>
       <c r="G178" s="1">
-        <v>3924</v>
+        <v>19676</v>
       </c>
       <c r="I178" s="2">
-        <v>0.67425335062876102</v>
+        <v>0.76783311832444401</v>
       </c>
       <c r="K178" s="2">
-        <v>0.34160806418582101</v>
+        <v>0.49802769902520899</v>
       </c>
       <c r="M178" s="1">
-        <v>771</v>
+        <v>3958</v>
       </c>
       <c r="O178" s="2">
-        <v>1.7430000000000001</v>
+        <v>1.772</v>
       </c>
       <c r="Q178" s="1">
-        <v>71.947999999999993</v>
+        <v>70.777000000000001</v>
       </c>
       <c r="S178" s="1">
-        <v>77.760999999999996</v>
+        <v>76.811999999999998</v>
       </c>
       <c r="U178" s="1">
-        <v>81.426000000000002</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="W178" s="1">
-        <v>57.061375952522603</v>
+        <v>53.8524827711</v>
       </c>
       <c r="Y178" s="1">
-        <v>27.764172239909001</v>
+        <v>28.265389877898301</v>
       </c>
       <c r="AA178" s="1">
-        <v>29.297203712613701</v>
+        <v>25.5870928932016</v>
       </c>
       <c r="AC178" s="1">
-        <v>83.903000000000006</v>
+        <v>82.664000000000001</v>
       </c>
       <c r="AE178" s="2">
-        <v>0.98206775875099706</v>
+        <v>0.98028591655005304</v>
       </c>
       <c r="AG178" s="2">
-        <v>0.59610261884260196</v>
+        <v>0.73616472042851699</v>
       </c>
       <c r="AI178" s="2">
-        <v>3.8980000000000001</v>
+        <v>2.9289999999999998</v>
       </c>
     </row>
     <row r="179" spans="2:35" x14ac:dyDescent="0.3">
@@ -11047,55 +11041,55 @@
         <v>177</v>
       </c>
       <c r="C179" s="1">
-        <v>59734</v>
+        <v>3474</v>
       </c>
       <c r="E179" s="1">
-        <v>30030</v>
+        <v>852</v>
       </c>
       <c r="G179" s="1">
-        <v>9739</v>
+        <v>237</v>
       </c>
       <c r="I179" s="2">
-        <v>2.7542098426748698</v>
+        <v>0.21592105585372801</v>
       </c>
       <c r="K179" s="2">
-        <v>2.5600052772923898</v>
+        <v>0.247175677947919</v>
       </c>
       <c r="M179" s="1">
-        <v>2153</v>
+        <v>47</v>
       </c>
       <c r="O179" s="2">
-        <v>4.7729999999999997</v>
+        <v>1.952</v>
       </c>
       <c r="Q179" s="1">
-        <v>46.783999999999999</v>
+        <v>68.616</v>
       </c>
       <c r="S179" s="1">
-        <v>50.801000000000002</v>
+        <v>74.730999999999995</v>
       </c>
       <c r="U179" s="1">
-        <v>65.814999999999998</v>
+        <v>78.055999999999997</v>
       </c>
       <c r="W179" s="1">
-        <v>85.866761631566703</v>
+        <v>54.852976183577098</v>
       </c>
       <c r="Y179" s="1">
-        <v>80.953208628114993</v>
+        <v>31.489424680886</v>
       </c>
       <c r="AA179" s="1">
-        <v>4.9135530034516597</v>
+        <v>23.363551502691202</v>
       </c>
       <c r="AC179" s="1">
-        <v>35.226999999999997</v>
+        <v>95.515000000000001</v>
       </c>
       <c r="AE179" s="2">
-        <v>4.9295557928608904</v>
+        <v>0.39301831606750298</v>
       </c>
       <c r="AG179" s="2">
-        <v>4.2549453214046302</v>
+        <v>0.321396104682595</v>
       </c>
       <c r="AI179" s="2">
-        <v>-0.72099999999999997</v>
+        <v>-0.871</v>
       </c>
     </row>
     <row r="180" spans="2:35" x14ac:dyDescent="0.3">
@@ -11103,55 +11097,55 @@
         <v>178</v>
       </c>
       <c r="C180" s="1">
-        <v>331003</v>
+        <v>33469</v>
       </c>
       <c r="E180" s="1">
-        <v>73493</v>
+        <v>11165</v>
       </c>
       <c r="G180" s="1">
-        <v>19676</v>
+        <v>3432</v>
       </c>
       <c r="I180" s="2">
-        <v>0.76783311832444401</v>
+        <v>1.43330550605579</v>
       </c>
       <c r="K180" s="2">
-        <v>0.49802769902520899</v>
+        <v>1.0139846839167901</v>
       </c>
       <c r="M180" s="1">
-        <v>3958</v>
+        <v>677</v>
       </c>
       <c r="O180" s="2">
-        <v>1.772</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="Q180" s="1">
-        <v>70.777000000000001</v>
+        <v>62.392000000000003</v>
       </c>
       <c r="S180" s="1">
-        <v>76.811999999999998</v>
+        <v>67.156000000000006</v>
       </c>
       <c r="U180" s="1">
-        <v>78.900000000000006</v>
+        <v>71.847999999999999</v>
       </c>
       <c r="W180" s="1">
-        <v>53.8524827711</v>
+        <v>50.577259635240701</v>
       </c>
       <c r="Y180" s="1">
-        <v>28.265389877898301</v>
+        <v>43.366325853928899</v>
       </c>
       <c r="AA180" s="1">
-        <v>25.5870928932016</v>
+        <v>7.2109337813117804</v>
       </c>
       <c r="AC180" s="1">
-        <v>82.664000000000001</v>
+        <v>50.415999999999997</v>
       </c>
       <c r="AE180" s="2">
-        <v>0.98028591655005304</v>
+        <v>1.85679028068645</v>
       </c>
       <c r="AG180" s="2">
-        <v>0.73616472042851699</v>
+        <v>1.2545629815535799</v>
       </c>
       <c r="AI180" s="2">
-        <v>2.9289999999999998</v>
+        <v>-0.27500000000000002</v>
       </c>
     </row>
     <row r="181" spans="2:35" x14ac:dyDescent="0.3">
@@ -11159,55 +11153,55 @@
         <v>179</v>
       </c>
       <c r="C181" s="1">
-        <v>3474</v>
+        <v>307</v>
       </c>
       <c r="E181" s="1">
-        <v>852</v>
+        <v>137</v>
       </c>
       <c r="G181" s="1">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="I181" s="2">
-        <v>0.21592105585372801</v>
+        <v>2.41511912410567</v>
       </c>
       <c r="K181" s="2">
-        <v>0.247175677947919</v>
+        <v>2.01529646941027</v>
       </c>
       <c r="M181" s="1">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="O181" s="2">
-        <v>1.952</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="Q181" s="1">
-        <v>68.616</v>
+        <v>54.451000000000001</v>
       </c>
       <c r="S181" s="1">
-        <v>74.730999999999995</v>
+        <v>67.363</v>
       </c>
       <c r="U181" s="1">
-        <v>78.055999999999997</v>
+        <v>70.623000000000005</v>
       </c>
       <c r="W181" s="1">
-        <v>54.852976183577098</v>
+        <v>72.467039507670194</v>
       </c>
       <c r="Y181" s="1">
-        <v>31.489424680886</v>
+        <v>66.244974507557899</v>
       </c>
       <c r="AA181" s="1">
-        <v>23.363551502691202</v>
+        <v>6.2220650001123001</v>
       </c>
       <c r="AC181" s="1">
-        <v>95.515000000000001</v>
+        <v>25.524999999999999</v>
       </c>
       <c r="AE181" s="2">
-        <v>0.39301831606750298</v>
+        <v>3.1941244471745498</v>
       </c>
       <c r="AG181" s="2">
-        <v>0.321396104682595</v>
+        <v>2.6587069630269702</v>
       </c>
       <c r="AI181" s="2">
-        <v>-0.871</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="182" spans="2:35" x14ac:dyDescent="0.3">
@@ -11215,55 +11209,55 @@
         <v>180</v>
       </c>
       <c r="C182" s="1">
-        <v>33469</v>
+        <v>28436</v>
       </c>
       <c r="E182" s="1">
-        <v>11165</v>
+        <v>9294</v>
       </c>
       <c r="G182" s="1">
-        <v>3432</v>
+        <v>2363</v>
       </c>
       <c r="I182" s="2">
-        <v>1.43330550605579</v>
+        <v>0.76958754230715898</v>
       </c>
       <c r="K182" s="2">
-        <v>1.0139846839167901</v>
+        <v>1.52417530683046</v>
       </c>
       <c r="M182" s="1">
-        <v>677</v>
+        <v>509</v>
       </c>
       <c r="O182" s="2">
-        <v>2.3769999999999998</v>
+        <v>2.23</v>
       </c>
       <c r="Q182" s="1">
-        <v>62.392000000000003</v>
+        <v>64.935000000000002</v>
       </c>
       <c r="S182" s="1">
-        <v>67.156000000000006</v>
+        <v>72.111999999999995</v>
       </c>
       <c r="U182" s="1">
-        <v>71.847999999999999</v>
+        <v>72.066000000000003</v>
       </c>
       <c r="W182" s="1">
-        <v>50.577259635240701</v>
+        <v>54.405294620075701</v>
       </c>
       <c r="Y182" s="1">
-        <v>43.366325853928899</v>
+        <v>42.0949934379247</v>
       </c>
       <c r="AA182" s="1">
-        <v>7.2109337813117804</v>
+        <v>12.3103011821509</v>
       </c>
       <c r="AC182" s="1">
-        <v>50.415999999999997</v>
+        <v>88.278999999999996</v>
       </c>
       <c r="AE182" s="2">
-        <v>1.85679028068645</v>
+        <v>0.80858469412133904</v>
       </c>
       <c r="AG182" s="2">
-        <v>1.2545629815535799</v>
+        <v>1.6022066998934701</v>
       </c>
       <c r="AI182" s="2">
-        <v>-0.27500000000000002</v>
+        <v>-22.327000000000002</v>
       </c>
     </row>
     <row r="183" spans="2:35" x14ac:dyDescent="0.3">
@@ -11271,55 +11265,55 @@
         <v>181</v>
       </c>
       <c r="C183" s="1">
-        <v>307</v>
+        <v>97339</v>
       </c>
       <c r="E183" s="1">
-        <v>137</v>
+        <v>26506</v>
       </c>
       <c r="G183" s="1">
-        <v>42</v>
+        <v>7892</v>
       </c>
       <c r="I183" s="2">
-        <v>2.41511912410567</v>
+        <v>0.93947286865667201</v>
       </c>
       <c r="K183" s="2">
-        <v>2.01529646941027</v>
+        <v>0.61605957977911496</v>
       </c>
       <c r="M183" s="1">
-        <v>9</v>
+        <v>1567</v>
       </c>
       <c r="O183" s="2">
-        <v>3.7069999999999999</v>
+        <v>2.0459999999999998</v>
       </c>
       <c r="Q183" s="1">
-        <v>54.451000000000001</v>
+        <v>59.563000000000002</v>
       </c>
       <c r="S183" s="1">
-        <v>67.363</v>
+        <v>73.025000000000006</v>
       </c>
       <c r="U183" s="1">
-        <v>70.623000000000005</v>
+        <v>75.492999999999995</v>
       </c>
       <c r="W183" s="1">
-        <v>72.467039507670194</v>
+        <v>45.0537695506723</v>
       </c>
       <c r="Y183" s="1">
-        <v>66.244974507557899</v>
+        <v>33.643823554407597</v>
       </c>
       <c r="AA183" s="1">
-        <v>6.2220650001123001</v>
+        <v>11.4099459962647</v>
       </c>
       <c r="AC183" s="1">
-        <v>25.524999999999999</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="AE183" s="2">
-        <v>3.1941244471745498</v>
+        <v>2.9706545244293698</v>
       </c>
       <c r="AG183" s="2">
-        <v>2.6587069630269702</v>
+        <v>2.2016259748657099</v>
       </c>
       <c r="AI183" s="2">
-        <v>0.41499999999999998</v>
+        <v>-0.84199999999999997</v>
       </c>
     </row>
     <row r="184" spans="2:35" x14ac:dyDescent="0.3">
@@ -11327,55 +11321,55 @@
         <v>182</v>
       </c>
       <c r="C184" s="1">
-        <v>28436</v>
+        <v>29826</v>
       </c>
       <c r="E184" s="1">
-        <v>9294</v>
+        <v>13542</v>
       </c>
       <c r="G184" s="1">
-        <v>2363</v>
+        <v>4115</v>
       </c>
       <c r="I184" s="2">
-        <v>0.76958754230715898</v>
+        <v>2.5637525296764099</v>
       </c>
       <c r="K184" s="2">
-        <v>1.52417530683046</v>
+        <v>1.8125341484613</v>
       </c>
       <c r="M184" s="1">
-        <v>509</v>
+        <v>875</v>
       </c>
       <c r="O184" s="2">
-        <v>2.23</v>
+        <v>3.6139999999999999</v>
       </c>
       <c r="Q184" s="1">
-        <v>64.935000000000002</v>
+        <v>36.82</v>
       </c>
       <c r="S184" s="1">
-        <v>72.111999999999995</v>
+        <v>60.683</v>
       </c>
       <c r="U184" s="1">
-        <v>72.066000000000003</v>
+        <v>66.180999999999997</v>
       </c>
       <c r="W184" s="1">
-        <v>54.405294620075701</v>
+        <v>71.712794067686801</v>
       </c>
       <c r="Y184" s="1">
-        <v>42.0949934379247</v>
+        <v>66.679910047869001</v>
       </c>
       <c r="AA184" s="1">
-        <v>12.3103011821509</v>
+        <v>5.0328840198177502</v>
       </c>
       <c r="AC184" s="1">
-        <v>88.278999999999996</v>
+        <v>37.908000000000001</v>
       </c>
       <c r="AE184" s="2">
-        <v>0.80858469412133904</v>
+        <v>4.3106514493784003</v>
       </c>
       <c r="AG184" s="2">
-        <v>1.6022066998934701</v>
+        <v>3.2405870164887598</v>
       </c>
       <c r="AI184" s="2">
-        <v>-22.327000000000002</v>
+        <v>-1.0649999999999999</v>
       </c>
     </row>
     <row r="185" spans="2:35" x14ac:dyDescent="0.3">
@@ -11383,55 +11377,55 @@
         <v>183</v>
       </c>
       <c r="C185" s="1">
-        <v>97339</v>
+        <v>18384</v>
       </c>
       <c r="E185" s="1">
-        <v>26506</v>
+        <v>9408</v>
       </c>
       <c r="G185" s="1">
-        <v>7892</v>
+        <v>2946</v>
       </c>
       <c r="I185" s="2">
-        <v>0.93947286865667201</v>
+        <v>2.7054324315411802</v>
       </c>
       <c r="K185" s="2">
-        <v>0.61605957977911496</v>
+        <v>2.54588124859694</v>
       </c>
       <c r="M185" s="1">
-        <v>1567</v>
+        <v>654</v>
       </c>
       <c r="O185" s="2">
-        <v>2.0459999999999998</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="Q185" s="1">
-        <v>59.563000000000002</v>
+        <v>50.113999999999997</v>
       </c>
       <c r="S185" s="1">
-        <v>73.025000000000006</v>
+        <v>44</v>
       </c>
       <c r="U185" s="1">
-        <v>75.492999999999995</v>
+        <v>64.194000000000003</v>
       </c>
       <c r="W185" s="1">
-        <v>45.0537695506723</v>
+        <v>85.699113785626494</v>
       </c>
       <c r="Y185" s="1">
-        <v>33.643823554407597</v>
+        <v>81.739927283834902</v>
       </c>
       <c r="AA185" s="1">
-        <v>11.4099459962647</v>
+        <v>3.9591865017916401</v>
       </c>
       <c r="AC185" s="1">
-        <v>37.340000000000003</v>
+        <v>44.628999999999998</v>
       </c>
       <c r="AE185" s="2">
-        <v>2.9706545244293698</v>
+        <v>3.8897610769874</v>
       </c>
       <c r="AG185" s="2">
-        <v>2.2016259748657099</v>
+        <v>3.6654605745936699</v>
       </c>
       <c r="AI185" s="2">
-        <v>-0.84199999999999997</v>
+        <v>-0.46700000000000003</v>
       </c>
     </row>
     <row r="186" spans="2:35" x14ac:dyDescent="0.3">
@@ -11439,166 +11433,54 @@
         <v>184</v>
       </c>
       <c r="C186" s="1">
-        <v>29826</v>
+        <v>14863</v>
       </c>
       <c r="E186" s="1">
-        <v>13542</v>
+        <v>7245</v>
       </c>
       <c r="G186" s="1">
-        <v>4115</v>
+        <v>2097</v>
       </c>
       <c r="I186" s="2">
-        <v>2.5637525296764099</v>
+        <v>1.0661378000024</v>
       </c>
       <c r="K186" s="2">
-        <v>1.8125341484613</v>
+        <v>1.53478794597445</v>
       </c>
       <c r="M186" s="1">
-        <v>875</v>
+        <v>432</v>
       </c>
       <c r="O186" s="2">
-        <v>3.6139999999999999</v>
+        <v>3.46</v>
       </c>
       <c r="Q186" s="1">
-        <v>36.82</v>
+        <v>56.912999999999997</v>
       </c>
       <c r="S186" s="1">
-        <v>60.683</v>
+        <v>44.649000000000001</v>
       </c>
       <c r="U186" s="1">
-        <v>66.180999999999997</v>
+        <v>61.738</v>
       </c>
       <c r="W186" s="1">
-        <v>71.712794067686801</v>
+        <v>81.571518187476599</v>
       </c>
       <c r="Y186" s="1">
-        <v>66.679910047869001</v>
+        <v>76.098667007097106</v>
       </c>
       <c r="AA186" s="1">
-        <v>5.0328840198177502</v>
+        <v>5.4728511803794797</v>
       </c>
       <c r="AC186" s="1">
-        <v>37.908000000000001</v>
+        <v>32.241999999999997</v>
       </c>
       <c r="AE186" s="2">
-        <v>4.3106514493784003</v>
+        <v>0.84734029613131201</v>
       </c>
       <c r="AG186" s="2">
-        <v>3.2405870164887598</v>
+        <v>2.0808441995997198</v>
       </c>
       <c r="AI186" s="2">
-        <v>-1.0649999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B187" t="s">
-        <v>185</v>
-      </c>
-      <c r="C187" s="1">
-        <v>18384</v>
-      </c>
-      <c r="E187" s="1">
-        <v>9408</v>
-      </c>
-      <c r="G187" s="1">
-        <v>2946</v>
-      </c>
-      <c r="I187" s="2">
-        <v>2.7054324315411802</v>
-      </c>
-      <c r="K187" s="2">
-        <v>2.54588124859694</v>
-      </c>
-      <c r="M187" s="1">
-        <v>654</v>
-      </c>
-      <c r="O187" s="2">
-        <v>4.4960000000000004</v>
-      </c>
-      <c r="Q187" s="1">
-        <v>50.113999999999997</v>
-      </c>
-      <c r="S187" s="1">
-        <v>44</v>
-      </c>
-      <c r="U187" s="1">
-        <v>64.194000000000003</v>
-      </c>
-      <c r="W187" s="1">
-        <v>85.699113785626494</v>
-      </c>
-      <c r="Y187" s="1">
-        <v>81.739927283834902</v>
-      </c>
-      <c r="AA187" s="1">
-        <v>3.9591865017916401</v>
-      </c>
-      <c r="AC187" s="1">
-        <v>44.628999999999998</v>
-      </c>
-      <c r="AE187" s="2">
-        <v>3.8897610769874</v>
-      </c>
-      <c r="AG187" s="2">
-        <v>3.6654605745936699</v>
-      </c>
-      <c r="AI187" s="2">
-        <v>-0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="188" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B188" t="s">
-        <v>186</v>
-      </c>
-      <c r="C188" s="1">
-        <v>14863</v>
-      </c>
-      <c r="E188" s="1">
-        <v>7245</v>
-      </c>
-      <c r="G188" s="1">
-        <v>2097</v>
-      </c>
-      <c r="I188" s="2">
-        <v>1.0661378000024</v>
-      </c>
-      <c r="K188" s="2">
-        <v>1.53478794597445</v>
-      </c>
-      <c r="M188" s="1">
-        <v>432</v>
-      </c>
-      <c r="O188" s="2">
-        <v>3.46</v>
-      </c>
-      <c r="Q188" s="1">
-        <v>56.912999999999997</v>
-      </c>
-      <c r="S188" s="1">
-        <v>44.649000000000001</v>
-      </c>
-      <c r="U188" s="1">
-        <v>61.738</v>
-      </c>
-      <c r="W188" s="1">
-        <v>81.571518187476599</v>
-      </c>
-      <c r="Y188" s="1">
-        <v>76.098667007097106</v>
-      </c>
-      <c r="AA188" s="1">
-        <v>5.4728511803794797</v>
-      </c>
-      <c r="AC188" s="1">
-        <v>32.241999999999997</v>
-      </c>
-      <c r="AE188" s="2">
-        <v>0.84734029613131201</v>
-      </c>
-      <c r="AG188" s="2">
-        <v>2.0808441995997198</v>
-      </c>
-      <c r="AI188" s="2">
         <v>-8.15</v>
       </c>
     </row>
